--- a/JupyterNotebooks/AvgHW/O554F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,28 +626,28 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002953963599517</v>
+        <v>1.002140183261535</v>
       </c>
       <c r="D3">
-        <v>0.9911521114201309</v>
+        <v>0.9953835615213728</v>
       </c>
       <c r="E3">
-        <v>1.001805291351322</v>
+        <v>1.004623781255899</v>
       </c>
       <c r="F3">
         <v>1.002953963599517</v>
       </c>
       <c r="G3">
-        <v>1.004623781255899</v>
+        <v>0.9911521114201309</v>
       </c>
       <c r="H3">
-        <v>0.9953835615213728</v>
+        <v>1.002953963599517</v>
       </c>
       <c r="I3">
-        <v>1.002140183261535</v>
+        <v>0.9911521114201309</v>
       </c>
       <c r="J3">
-        <v>0.9911521114201309</v>
+        <v>1.001805291351322</v>
       </c>
       <c r="K3">
         <v>1.002953963599517</v>
@@ -728,7 +680,7 @@
         <v>0.9996764820682961</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,28 +688,28 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.005659576010293</v>
+        <v>1.004129387183456</v>
       </c>
       <c r="D4">
-        <v>0.982939791358942</v>
+        <v>0.9910898029337273</v>
       </c>
       <c r="E4">
-        <v>1.003499677102932</v>
+        <v>1.008969197236928</v>
       </c>
       <c r="F4">
         <v>1.005659576010293</v>
       </c>
       <c r="G4">
-        <v>1.008969197236928</v>
+        <v>0.982939791358942</v>
       </c>
       <c r="H4">
-        <v>0.9910898029337273</v>
+        <v>1.005659576010293</v>
       </c>
       <c r="I4">
-        <v>1.004129387183456</v>
+        <v>0.982939791358942</v>
       </c>
       <c r="J4">
-        <v>0.982939791358942</v>
+        <v>1.003499677102932</v>
       </c>
       <c r="K4">
         <v>1.005659576010293</v>
@@ -790,7 +742,7 @@
         <v>0.9993812386377131</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,28 +750,28 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.010783065396597</v>
+        <v>1.007908174742356</v>
       </c>
       <c r="D5">
-        <v>0.9673538067228693</v>
+        <v>0.9829263397017703</v>
       </c>
       <c r="E5">
-        <v>1.006725085688539</v>
+        <v>1.017263129467125</v>
       </c>
       <c r="F5">
         <v>1.010783065396597</v>
       </c>
       <c r="G5">
-        <v>1.017263129467125</v>
+        <v>0.9673538067228693</v>
       </c>
       <c r="H5">
-        <v>0.9829263397017703</v>
+        <v>1.010783065396597</v>
       </c>
       <c r="I5">
-        <v>1.007908174742356</v>
+        <v>0.9673538067228693</v>
       </c>
       <c r="J5">
-        <v>0.9673538067228693</v>
+        <v>1.006725085688539</v>
       </c>
       <c r="K5">
         <v>1.010783065396597</v>
@@ -852,7 +804,7 @@
         <v>0.9988266002865428</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,28 +812,28 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.015768614426227</v>
+        <v>1.011594742309736</v>
       </c>
       <c r="D6">
-        <v>0.9521546287882223</v>
+        <v>0.9749595437174576</v>
       </c>
       <c r="E6">
-        <v>1.009877096495346</v>
+        <v>1.02537565838375</v>
       </c>
       <c r="F6">
         <v>1.015768614426227</v>
       </c>
       <c r="G6">
-        <v>1.02537565838375</v>
+        <v>0.9521546287882224</v>
       </c>
       <c r="H6">
-        <v>0.9749595437174576</v>
+        <v>1.015768614426227</v>
       </c>
       <c r="I6">
-        <v>1.011594742309736</v>
+        <v>0.9521546287882224</v>
       </c>
       <c r="J6">
-        <v>0.9521546287882223</v>
+        <v>1.009877096495346</v>
       </c>
       <c r="K6">
         <v>1.015768614426227</v>
@@ -914,7 +866,7 @@
         <v>0.9982883806867898</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000067856894629</v>
+        <v>1.000135865244909</v>
       </c>
       <c r="D7">
-        <v>0.9994823934187841</v>
+        <v>0.9996923661889752</v>
       </c>
       <c r="E7">
-        <v>1.000163850019478</v>
+        <v>1.000456528876059</v>
       </c>
       <c r="F7">
         <v>1.000067856894629</v>
       </c>
       <c r="G7">
-        <v>1.000456528876059</v>
+        <v>0.9994823934187841</v>
       </c>
       <c r="H7">
-        <v>0.9996923661889749</v>
+        <v>1.000067856894629</v>
       </c>
       <c r="I7">
-        <v>1.000135865244909</v>
+        <v>0.9994823934187841</v>
       </c>
       <c r="J7">
-        <v>0.9994823934187841</v>
+        <v>1.000163850019478</v>
       </c>
       <c r="K7">
         <v>1.000067856894629</v>
@@ -973,10 +925,10 @@
         <v>0.9999454893068802</v>
       </c>
       <c r="T7">
-        <v>0.9999998101071389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999998101071391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000165948507114</v>
+        <v>1.000334305719453</v>
       </c>
       <c r="D8">
-        <v>0.998726167506238</v>
+        <v>0.9992432472056693</v>
       </c>
       <c r="E8">
-        <v>1.000403586341121</v>
+        <v>1.001123545842572</v>
       </c>
       <c r="F8">
         <v>1.000165948507114</v>
       </c>
       <c r="G8">
-        <v>1.001123545842572</v>
+        <v>0.9987261675062378</v>
       </c>
       <c r="H8">
-        <v>0.999243247205669</v>
+        <v>1.000165948507114</v>
       </c>
       <c r="I8">
-        <v>1.000334305719453</v>
+        <v>0.9987261675062378</v>
       </c>
       <c r="J8">
-        <v>0.998726167506238</v>
+        <v>1.000403586341121</v>
       </c>
       <c r="K8">
         <v>1.000165948507114</v>
@@ -1014,13 +966,13 @@
         <v>1.000403586341121</v>
       </c>
       <c r="M8">
-        <v>0.9995648769236793</v>
+        <v>0.9995648769236795</v>
       </c>
       <c r="N8">
-        <v>0.9995648769236793</v>
+        <v>0.9995648769236795</v>
       </c>
       <c r="O8">
-        <v>0.9994576670176759</v>
+        <v>0.9994576670176761</v>
       </c>
       <c r="P8">
         <v>0.9997652341181578</v>
@@ -1035,10 +987,10 @@
         <v>0.999865412715397</v>
       </c>
       <c r="T8">
-        <v>0.9999994668536946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999994668536947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,28 +998,28 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000224624251616</v>
+        <v>1.000448253816612</v>
       </c>
       <c r="D9">
-        <v>0.9982897567018026</v>
+        <v>0.9989863861518986</v>
       </c>
       <c r="E9">
-        <v>1.000540279754059</v>
+        <v>1.001500742652026</v>
       </c>
       <c r="F9">
         <v>1.000224624251616</v>
       </c>
       <c r="G9">
-        <v>1.001500742652026</v>
+        <v>0.9982897567018026</v>
       </c>
       <c r="H9">
-        <v>0.9989863861518991</v>
+        <v>1.000224624251616</v>
       </c>
       <c r="I9">
-        <v>1.000448253816612</v>
+        <v>0.9982897567018026</v>
       </c>
       <c r="J9">
-        <v>0.9982897567018026</v>
+        <v>1.000540279754059</v>
       </c>
       <c r="K9">
         <v>1.000224624251616</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999983405546691</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,28 +1060,28 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000498251742724</v>
+        <v>1.00098507171936</v>
       </c>
       <c r="D10">
-        <v>0.9962411451694954</v>
+        <v>0.9977723547549905</v>
       </c>
       <c r="E10">
-        <v>1.001185405054663</v>
+        <v>1.003294190872383</v>
       </c>
       <c r="F10">
         <v>1.000498251742724</v>
       </c>
       <c r="G10">
-        <v>1.003294190872383</v>
+        <v>0.9962411451694954</v>
       </c>
       <c r="H10">
-        <v>0.9977723547549905</v>
+        <v>1.000498251742724</v>
       </c>
       <c r="I10">
-        <v>1.00098507171936</v>
+        <v>0.9962411451694954</v>
       </c>
       <c r="J10">
-        <v>0.9962411451694954</v>
+        <v>1.001185405054663</v>
       </c>
       <c r="K10">
         <v>1.000498251742724</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999960698856026</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,28 +1122,28 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000817475326168</v>
+        <v>1.001588762073739</v>
       </c>
       <c r="D11">
-        <v>0.9939291326162398</v>
+        <v>0.9964107503156265</v>
       </c>
       <c r="E11">
-        <v>1.00190615952746</v>
+        <v>1.005287463090393</v>
       </c>
       <c r="F11">
         <v>1.000817475326168</v>
       </c>
       <c r="G11">
-        <v>1.005287463090393</v>
+        <v>0.9939291326162398</v>
       </c>
       <c r="H11">
-        <v>0.9964107503156265</v>
+        <v>1.000817475326168</v>
       </c>
       <c r="I11">
-        <v>1.001588762073739</v>
+        <v>0.9939291326162398</v>
       </c>
       <c r="J11">
-        <v>0.9939291326162398</v>
+        <v>1.00190615952746</v>
       </c>
       <c r="K11">
         <v>1.000817475326168</v>
@@ -1224,7 +1176,7 @@
         <v>0.999989957158271</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.005447565159535</v>
+        <v>0.9865357185113219</v>
       </c>
       <c r="D12">
-        <v>1.047002770488813</v>
+        <v>1.031861426470666</v>
       </c>
       <c r="E12">
-        <v>0.9787530665002225</v>
+        <v>0.9385568681491758</v>
       </c>
       <c r="F12">
         <v>1.005447565159535</v>
       </c>
       <c r="G12">
-        <v>0.9385568681491758</v>
+        <v>1.047002770488813</v>
       </c>
       <c r="H12">
-        <v>1.031861426470666</v>
+        <v>1.005447565159535</v>
       </c>
       <c r="I12">
-        <v>0.9865357185113219</v>
+        <v>1.047002770488813</v>
       </c>
       <c r="J12">
-        <v>1.047002770488813</v>
+        <v>0.9787530665002225</v>
       </c>
       <c r="K12">
         <v>1.005447565159535</v>
@@ -1286,7 +1238,7 @@
         <v>0.9980262358799559</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,28 +1246,28 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9874859973358197</v>
+        <v>0.9956332946746439</v>
       </c>
       <c r="D13">
-        <v>1.02030236908294</v>
+        <v>1.00870860637718</v>
       </c>
       <c r="E13">
-        <v>0.998986093031317</v>
+        <v>0.9991227717885854</v>
       </c>
       <c r="F13">
         <v>0.9874859973358197</v>
       </c>
       <c r="G13">
-        <v>0.9991227717885854</v>
+        <v>1.02030236908294</v>
       </c>
       <c r="H13">
-        <v>1.00870860637718</v>
+        <v>0.9874859973358197</v>
       </c>
       <c r="I13">
-        <v>0.9956332946746439</v>
+        <v>1.02030236908294</v>
       </c>
       <c r="J13">
-        <v>1.02030236908294</v>
+        <v>0.998986093031317</v>
       </c>
       <c r="K13">
         <v>0.9874859973358197</v>
@@ -1348,7 +1300,7 @@
         <v>1.001706522048414</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9652095947156103</v>
+        <v>0.9571627823628177</v>
       </c>
       <c r="D14">
-        <v>1.167955588361192</v>
+        <v>1.095466582991626</v>
       </c>
       <c r="E14">
-        <v>0.9538513414715889</v>
+        <v>0.8739474678005341</v>
       </c>
       <c r="F14">
         <v>0.9652095947156103</v>
       </c>
       <c r="G14">
-        <v>0.8739474678005341</v>
+        <v>1.167955588361192</v>
       </c>
       <c r="H14">
-        <v>1.095466582991626</v>
+        <v>0.9652095947156103</v>
       </c>
       <c r="I14">
-        <v>0.9571627823628178</v>
+        <v>1.167955588361192</v>
       </c>
       <c r="J14">
-        <v>1.167955588361192</v>
+        <v>0.9538513414715889</v>
       </c>
       <c r="K14">
         <v>0.9652095947156103</v>
@@ -1410,7 +1362,7 @@
         <v>1.002265559617228</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9849473103608972</v>
+        <v>0.9881902067147117</v>
       </c>
       <c r="D15">
-        <v>1.048939658473913</v>
+        <v>1.025298299667422</v>
       </c>
       <c r="E15">
-        <v>0.9895247385780078</v>
+        <v>0.9739367055147482</v>
       </c>
       <c r="F15">
         <v>0.9849473103608972</v>
       </c>
       <c r="G15">
-        <v>0.9739367055147482</v>
+        <v>1.048939658473913</v>
       </c>
       <c r="H15">
-        <v>1.025298299667422</v>
+        <v>0.9849473103608972</v>
       </c>
       <c r="I15">
-        <v>0.9881902067147119</v>
+        <v>1.048939658473913</v>
       </c>
       <c r="J15">
-        <v>1.048939658473913</v>
+        <v>0.9895247385780078</v>
       </c>
       <c r="K15">
         <v>0.9849473103608972</v>
@@ -1472,7 +1424,7 @@
         <v>1.001806153218283</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000120550367829</v>
+        <v>1.041619675660141</v>
       </c>
       <c r="D16">
-        <v>0.9999096907033812</v>
+        <v>0.910035086782171</v>
       </c>
       <c r="E16">
-        <v>0.9999710567263461</v>
+        <v>1.092214857372638</v>
       </c>
       <c r="F16">
-        <v>1.000120550367829</v>
+        <v>1.055700658131045</v>
       </c>
       <c r="G16">
-        <v>0.9999092924769289</v>
+        <v>0.8285397820073548</v>
       </c>
       <c r="H16">
-        <v>0.9999765574580197</v>
+        <v>1.055700658131045</v>
       </c>
       <c r="I16">
-        <v>1.000014642434032</v>
+        <v>0.8285397820073548</v>
       </c>
       <c r="J16">
-        <v>0.9999096907033812</v>
+        <v>1.035825025029374</v>
       </c>
       <c r="K16">
-        <v>1.000120550367829</v>
+        <v>1.055700658131045</v>
       </c>
       <c r="L16">
-        <v>0.9999710567263461</v>
+        <v>1.035825025029374</v>
       </c>
       <c r="M16">
-        <v>0.9999403737148637</v>
+        <v>0.9321824035183645</v>
       </c>
       <c r="N16">
-        <v>0.9999403737148637</v>
+        <v>0.9321824035183645</v>
       </c>
       <c r="O16">
-        <v>0.9999524349625823</v>
+        <v>0.9247999646063</v>
       </c>
       <c r="P16">
-        <v>1.000000432599186</v>
+        <v>0.9733551550559246</v>
       </c>
       <c r="Q16">
-        <v>1.000000432599186</v>
+        <v>0.9733551550559246</v>
       </c>
       <c r="R16">
-        <v>1.000030462041346</v>
+        <v>0.9939415308247047</v>
       </c>
       <c r="S16">
-        <v>1.000030462041346</v>
+        <v>0.9939415308247047</v>
       </c>
       <c r="T16">
-        <v>0.9999836316944227</v>
+        <v>0.9939891808304541</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9998800995005648</v>
+        <v>1.033733948848811</v>
       </c>
       <c r="D17">
-        <v>0.9994440820038869</v>
+        <v>0.9265712149457282</v>
       </c>
       <c r="E17">
-        <v>1.000279954001243</v>
+        <v>1.080436542495413</v>
       </c>
       <c r="F17">
-        <v>0.9998800995005648</v>
+        <v>1.040969021809717</v>
       </c>
       <c r="G17">
-        <v>1.000808048506368</v>
+        <v>0.8625667217646801</v>
       </c>
       <c r="H17">
-        <v>0.9996099119582462</v>
+        <v>1.040969021809717</v>
       </c>
       <c r="I17">
-        <v>1.000163379709218</v>
+        <v>0.8625667217646801</v>
       </c>
       <c r="J17">
-        <v>0.9994440820038869</v>
+        <v>1.030756547031008</v>
       </c>
       <c r="K17">
-        <v>0.9998800995005648</v>
+        <v>1.040969021809717</v>
       </c>
       <c r="L17">
-        <v>1.000279954001243</v>
+        <v>1.030756547031008</v>
       </c>
       <c r="M17">
-        <v>0.9998620180025648</v>
+        <v>0.946661634397844</v>
       </c>
       <c r="N17">
-        <v>0.9998620180025648</v>
+        <v>0.946661634397844</v>
       </c>
       <c r="O17">
-        <v>0.9997779826544586</v>
+        <v>0.9399648279138054</v>
       </c>
       <c r="P17">
-        <v>0.9998680451685648</v>
+        <v>0.9780974302018016</v>
       </c>
       <c r="Q17">
-        <v>0.9998680451685648</v>
+        <v>0.9780974302018016</v>
       </c>
       <c r="R17">
-        <v>0.9998710587515648</v>
+        <v>0.9938153281037805</v>
       </c>
       <c r="S17">
-        <v>0.9998710587515648</v>
+        <v>0.9938153281037805</v>
       </c>
       <c r="T17">
-        <v>1.000030912613254</v>
+        <v>0.9958389994825595</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001382204634804</v>
+        <v>1.017863615986636</v>
       </c>
       <c r="D18">
-        <v>0.9970173271740871</v>
+        <v>0.9598775204136941</v>
       </c>
       <c r="E18">
-        <v>1.00040098656707</v>
+        <v>1.05644294697673</v>
       </c>
       <c r="F18">
-        <v>1.001382204634804</v>
+        <v>1.011530260712762</v>
       </c>
       <c r="G18">
-        <v>1.00092842242662</v>
+        <v>0.9309680699055408</v>
       </c>
       <c r="H18">
-        <v>0.9985608486728237</v>
+        <v>1.011530260712762</v>
       </c>
       <c r="I18">
-        <v>1.000687059536693</v>
+        <v>0.9309680699055408</v>
       </c>
       <c r="J18">
-        <v>0.9970173271740871</v>
+        <v>1.020469932037749</v>
       </c>
       <c r="K18">
-        <v>1.001382204634804</v>
+        <v>1.011530260712762</v>
       </c>
       <c r="L18">
-        <v>1.00040098656707</v>
+        <v>1.020469932037749</v>
       </c>
       <c r="M18">
-        <v>0.9987091568705788</v>
+        <v>0.975719000971645</v>
       </c>
       <c r="N18">
-        <v>0.9987091568705788</v>
+        <v>0.975719000971645</v>
       </c>
       <c r="O18">
-        <v>0.9986597208046604</v>
+        <v>0.970438507452328</v>
       </c>
       <c r="P18">
-        <v>0.9996001727919873</v>
+        <v>0.9876560875520172</v>
       </c>
       <c r="Q18">
-        <v>0.9996001727919873</v>
+        <v>0.9876560875520172</v>
       </c>
       <c r="R18">
-        <v>1.000045680752691</v>
+        <v>0.9936246308422034</v>
       </c>
       <c r="S18">
-        <v>1.000045680752691</v>
+        <v>0.9936246308422034</v>
       </c>
       <c r="T18">
-        <v>0.9998294748353498</v>
+        <v>0.9995253910055185</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.019414606713499</v>
+      </c>
+      <c r="D19">
+        <v>0.9560915599031681</v>
+      </c>
+      <c r="E19">
+        <v>1.064377530134735</v>
+      </c>
+      <c r="F19">
+        <v>1.010420814643022</v>
+      </c>
+      <c r="G19">
+        <v>0.9258313347145808</v>
+      </c>
+      <c r="H19">
+        <v>1.010420814643022</v>
+      </c>
+      <c r="I19">
+        <v>0.9258313347145808</v>
+      </c>
+      <c r="J19">
+        <v>1.023115756125794</v>
+      </c>
+      <c r="K19">
+        <v>1.010420814643022</v>
+      </c>
+      <c r="L19">
+        <v>1.023115756125794</v>
+      </c>
+      <c r="M19">
+        <v>0.9744735454201875</v>
+      </c>
+      <c r="N19">
+        <v>0.9744735454201875</v>
+      </c>
+      <c r="O19">
+        <v>0.9683462169145143</v>
+      </c>
+      <c r="P19">
+        <v>0.9864559684944655</v>
+      </c>
+      <c r="Q19">
+        <v>0.9864559684944655</v>
+      </c>
+      <c r="R19">
+        <v>0.9924471800316046</v>
+      </c>
+      <c r="S19">
+        <v>0.9924471800316046</v>
+      </c>
+      <c r="T19">
+        <v>0.999875267039133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000014642434032</v>
+      </c>
+      <c r="D20">
+        <v>0.9999765574580197</v>
+      </c>
+      <c r="E20">
+        <v>0.9999092924769289</v>
+      </c>
+      <c r="F20">
+        <v>1.000120550367829</v>
+      </c>
+      <c r="G20">
+        <v>0.9999096907033812</v>
+      </c>
+      <c r="H20">
+        <v>1.000120550367829</v>
+      </c>
+      <c r="I20">
+        <v>0.9999096907033812</v>
+      </c>
+      <c r="J20">
+        <v>0.9999710567263461</v>
+      </c>
+      <c r="K20">
+        <v>1.000120550367829</v>
+      </c>
+      <c r="L20">
+        <v>0.9999710567263461</v>
+      </c>
+      <c r="M20">
+        <v>0.9999403737148637</v>
+      </c>
+      <c r="N20">
+        <v>0.9999403737148637</v>
+      </c>
+      <c r="O20">
+        <v>0.9999524349625823</v>
+      </c>
+      <c r="P20">
+        <v>1.000000432599186</v>
+      </c>
+      <c r="Q20">
+        <v>1.000000432599186</v>
+      </c>
+      <c r="R20">
+        <v>1.000030462041346</v>
+      </c>
+      <c r="S20">
+        <v>1.000030462041346</v>
+      </c>
+      <c r="T20">
+        <v>0.9999836316944227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000163379709217</v>
+      </c>
+      <c r="D21">
+        <v>0.9996099119582463</v>
+      </c>
+      <c r="E21">
+        <v>1.000808048506368</v>
+      </c>
+      <c r="F21">
+        <v>0.9998800995005648</v>
+      </c>
+      <c r="G21">
+        <v>0.9994440820038869</v>
+      </c>
+      <c r="H21">
+        <v>0.9998800995005648</v>
+      </c>
+      <c r="I21">
+        <v>0.9994440820038869</v>
+      </c>
+      <c r="J21">
+        <v>1.000279954001243</v>
+      </c>
+      <c r="K21">
+        <v>0.9998800995005648</v>
+      </c>
+      <c r="L21">
+        <v>1.000279954001243</v>
+      </c>
+      <c r="M21">
+        <v>0.9998620180025648</v>
+      </c>
+      <c r="N21">
+        <v>0.9998620180025648</v>
+      </c>
+      <c r="O21">
+        <v>0.9997779826544586</v>
+      </c>
+      <c r="P21">
+        <v>0.9998680451685648</v>
+      </c>
+      <c r="Q21">
+        <v>0.9998680451685648</v>
+      </c>
+      <c r="R21">
+        <v>0.9998710587515648</v>
+      </c>
+      <c r="S21">
+        <v>0.9998710587515648</v>
+      </c>
+      <c r="T21">
+        <v>1.000030912613254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.000687059536693</v>
+      </c>
+      <c r="D22">
+        <v>0.9985608486728237</v>
+      </c>
+      <c r="E22">
+        <v>1.00092842242662</v>
+      </c>
+      <c r="F22">
+        <v>1.001382204634804</v>
+      </c>
+      <c r="G22">
+        <v>0.9970173271740872</v>
+      </c>
+      <c r="H22">
+        <v>1.001382204634804</v>
+      </c>
+      <c r="I22">
+        <v>0.9970173271740872</v>
+      </c>
+      <c r="J22">
+        <v>1.00040098656707</v>
+      </c>
+      <c r="K22">
+        <v>1.001382204634804</v>
+      </c>
+      <c r="L22">
+        <v>1.00040098656707</v>
+      </c>
+      <c r="M22">
+        <v>0.9987091568705788</v>
+      </c>
+      <c r="N22">
+        <v>0.9987091568705788</v>
+      </c>
+      <c r="O22">
+        <v>0.9986597208046604</v>
+      </c>
+      <c r="P22">
+        <v>0.9996001727919873</v>
+      </c>
+      <c r="Q22">
+        <v>0.9996001727919873</v>
+      </c>
+      <c r="R22">
+        <v>1.000045680752691</v>
+      </c>
+      <c r="S22">
+        <v>1.000045680752691</v>
+      </c>
+      <c r="T22">
+        <v>0.9998294748353498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.001681591513469</v>
+      </c>
+      <c r="D23">
+        <v>0.9965839028561614</v>
+      </c>
+      <c r="E23">
+        <v>1.000917002657545</v>
+      </c>
+      <c r="F23">
         <v>1.004434030828622</v>
       </c>
-      <c r="D19">
+      <c r="G23">
         <v>0.9923508841452696</v>
       </c>
-      <c r="E19">
+      <c r="H23">
+        <v>1.004434030828622</v>
+      </c>
+      <c r="I23">
+        <v>0.9923508841452696</v>
+      </c>
+      <c r="J23">
         <v>1.000548895758698</v>
       </c>
-      <c r="F19">
+      <c r="K23">
         <v>1.004434030828622</v>
       </c>
-      <c r="G19">
-        <v>1.000917002657545</v>
-      </c>
-      <c r="H19">
-        <v>0.9965839028561614</v>
-      </c>
-      <c r="I19">
-        <v>1.001681591513469</v>
-      </c>
-      <c r="J19">
-        <v>0.9923508841452696</v>
-      </c>
-      <c r="K19">
-        <v>1.004434030828622</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.000548895758698</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9964498899519838</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9964498899519838</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9964945609200431</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9991112702441965</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9991112702441968</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000441960390303</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000441960390303</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9994193846266275</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/O554F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW30.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002140183261535</v>
+        <v>1.021238421657058</v>
       </c>
       <c r="D3">
-        <v>0.9953835615213728</v>
+        <v>0.952294083731989</v>
       </c>
       <c r="E3">
-        <v>1.004623781255899</v>
+        <v>1.067039958645531</v>
       </c>
       <c r="F3">
-        <v>1.002953963599517</v>
+        <v>1.01379246704611</v>
       </c>
       <c r="G3">
-        <v>0.9911521114201309</v>
+        <v>0.9179196378890481</v>
       </c>
       <c r="H3">
-        <v>1.002953963599517</v>
+        <v>1.01379246704611</v>
       </c>
       <c r="I3">
-        <v>0.9911521114201309</v>
+        <v>0.9179196378890481</v>
       </c>
       <c r="J3">
-        <v>1.001805291351322</v>
+        <v>1.024302598530257</v>
       </c>
       <c r="K3">
-        <v>1.002953963599517</v>
+        <v>1.01379246704611</v>
       </c>
       <c r="L3">
-        <v>1.001805291351322</v>
+        <v>1.024302598530257</v>
       </c>
       <c r="M3">
-        <v>0.9964787013857263</v>
+        <v>0.9711111182096526</v>
       </c>
       <c r="N3">
-        <v>0.9964787013857263</v>
+        <v>0.9711111182096526</v>
       </c>
       <c r="O3">
-        <v>0.996113654764275</v>
+        <v>0.9648387733837648</v>
       </c>
       <c r="P3">
-        <v>0.9986371221236566</v>
+        <v>0.9853382344884718</v>
       </c>
       <c r="Q3">
-        <v>0.9986371221236566</v>
+        <v>0.9853382344884718</v>
       </c>
       <c r="R3">
-        <v>0.9997163324926219</v>
+        <v>0.9924517926278813</v>
       </c>
       <c r="S3">
-        <v>0.9997163324926219</v>
+        <v>0.9924517926278813</v>
       </c>
       <c r="T3">
-        <v>0.9996764820682961</v>
+        <v>0.9994311945833324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004129387183456</v>
+        <v>1.01943576782613</v>
       </c>
       <c r="D4">
-        <v>0.9910898029337273</v>
+        <v>0.9563356168244512</v>
       </c>
       <c r="E4">
-        <v>1.008969197236928</v>
+        <v>1.061470514416695</v>
       </c>
       <c r="F4">
-        <v>1.005659576010293</v>
+        <v>1.012521202292208</v>
       </c>
       <c r="G4">
-        <v>0.982939791358942</v>
+        <v>0.9249152634150175</v>
       </c>
       <c r="H4">
-        <v>1.005659576010293</v>
+        <v>1.012521202292208</v>
       </c>
       <c r="I4">
-        <v>0.982939791358942</v>
+        <v>0.9249152634150175</v>
       </c>
       <c r="J4">
-        <v>1.003499677102932</v>
+        <v>1.022281266451732</v>
       </c>
       <c r="K4">
-        <v>1.005659576010293</v>
+        <v>1.012521202292208</v>
       </c>
       <c r="L4">
-        <v>1.003499677102932</v>
+        <v>1.022281266451732</v>
       </c>
       <c r="M4">
-        <v>0.9932197342309368</v>
+        <v>0.9735982649333746</v>
       </c>
       <c r="N4">
-        <v>0.9932197342309368</v>
+        <v>0.9735982649333746</v>
       </c>
       <c r="O4">
-        <v>0.992509757131867</v>
+        <v>0.9678440488970669</v>
       </c>
       <c r="P4">
-        <v>0.9973663481573887</v>
+        <v>0.9865725773863193</v>
       </c>
       <c r="Q4">
-        <v>0.9973663481573888</v>
+        <v>0.9865725773863193</v>
       </c>
       <c r="R4">
-        <v>0.9994396551206148</v>
+        <v>0.9930597336127915</v>
       </c>
       <c r="S4">
-        <v>0.9994396551206148</v>
+        <v>0.9930597336127915</v>
       </c>
       <c r="T4">
-        <v>0.9993812386377131</v>
+        <v>0.9994932718710392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.007908174742356</v>
+        <v>1.024640643342319</v>
       </c>
       <c r="D5">
-        <v>0.9829263397017703</v>
+        <v>0.9446613232614561</v>
       </c>
       <c r="E5">
-        <v>1.017263129467125</v>
+        <v>1.077612769056604</v>
       </c>
       <c r="F5">
-        <v>1.010783065396597</v>
+        <v>1.016144950188679</v>
       </c>
       <c r="G5">
-        <v>0.9673538067228693</v>
+        <v>0.9047325635849053</v>
       </c>
       <c r="H5">
-        <v>1.010783065396597</v>
+        <v>1.016144950188679</v>
       </c>
       <c r="I5">
-        <v>0.9673538067228693</v>
+        <v>0.9047325635849053</v>
       </c>
       <c r="J5">
-        <v>1.006725085688539</v>
+        <v>1.028136808059302</v>
       </c>
       <c r="K5">
-        <v>1.010783065396597</v>
+        <v>1.016144950188679</v>
       </c>
       <c r="L5">
-        <v>1.006725085688539</v>
+        <v>1.028136808059302</v>
       </c>
       <c r="M5">
-        <v>0.9870394462057041</v>
+        <v>0.9664346858221035</v>
       </c>
       <c r="N5">
-        <v>0.9870394462057041</v>
+        <v>0.9664346858221035</v>
       </c>
       <c r="O5">
-        <v>0.9856684107043928</v>
+        <v>0.9591768983018877</v>
       </c>
       <c r="P5">
-        <v>0.9949539859360019</v>
+        <v>0.9830047739442952</v>
       </c>
       <c r="Q5">
-        <v>0.9949539859360019</v>
+        <v>0.9830047739442952</v>
       </c>
       <c r="R5">
-        <v>0.9989112558011508</v>
+        <v>0.9912898180053912</v>
       </c>
       <c r="S5">
-        <v>0.9989112558011508</v>
+        <v>0.9912898180053912</v>
       </c>
       <c r="T5">
-        <v>0.9988266002865428</v>
+        <v>0.9993215095822109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.011594742309736</v>
+        <v>1.027792051477273</v>
       </c>
       <c r="D6">
-        <v>0.9749595437174576</v>
+        <v>0.9375852357954543</v>
       </c>
       <c r="E6">
-        <v>1.02537565838375</v>
+        <v>1.087479600170456</v>
       </c>
       <c r="F6">
-        <v>1.015768614426227</v>
+        <v>1.018267970568182</v>
       </c>
       <c r="G6">
-        <v>0.9521546287882224</v>
+        <v>0.8925368277272726</v>
       </c>
       <c r="H6">
-        <v>1.015768614426227</v>
+        <v>1.018267970568182</v>
       </c>
       <c r="I6">
-        <v>0.9521546287882224</v>
+        <v>0.8925368277272726</v>
       </c>
       <c r="J6">
-        <v>1.009877096495346</v>
+        <v>1.031711425113636</v>
       </c>
       <c r="K6">
-        <v>1.015768614426227</v>
+        <v>1.018267970568182</v>
       </c>
       <c r="L6">
-        <v>1.009877096495346</v>
+        <v>1.031711425113636</v>
       </c>
       <c r="M6">
-        <v>0.9810158626417842</v>
+        <v>0.9621241264204545</v>
       </c>
       <c r="N6">
-        <v>0.9810158626417842</v>
+        <v>0.9621241264204545</v>
       </c>
       <c r="O6">
-        <v>0.9789970896670086</v>
+        <v>0.9539444962121211</v>
       </c>
       <c r="P6">
-        <v>0.9926001132365986</v>
+        <v>0.9808387411363636</v>
       </c>
       <c r="Q6">
-        <v>0.9926001132365986</v>
+        <v>0.9808387411363636</v>
       </c>
       <c r="R6">
-        <v>0.9983922385340058</v>
+        <v>0.9901960484943182</v>
       </c>
       <c r="S6">
-        <v>0.9983922385340058</v>
+        <v>0.9901960484943182</v>
       </c>
       <c r="T6">
-        <v>0.9982883806867898</v>
+        <v>0.9992288518087123</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000135865244909</v>
+        <v>1.011426704303781</v>
       </c>
       <c r="D7">
-        <v>0.9996923661889752</v>
+        <v>0.9722707399261705</v>
       </c>
       <c r="E7">
-        <v>1.000456528876059</v>
+        <v>1.056706200824423</v>
       </c>
       <c r="F7">
-        <v>1.000067856894629</v>
+        <v>0.993086371892508</v>
       </c>
       <c r="G7">
-        <v>0.9994823934187841</v>
+        <v>0.9616745996038258</v>
       </c>
       <c r="H7">
-        <v>1.000067856894629</v>
+        <v>0.993086371892508</v>
       </c>
       <c r="I7">
-        <v>0.9994823934187841</v>
+        <v>0.9616745996038258</v>
       </c>
       <c r="J7">
-        <v>1.000163850019478</v>
+        <v>1.018974175334968</v>
       </c>
       <c r="K7">
-        <v>1.000067856894629</v>
+        <v>0.993086371892508</v>
       </c>
       <c r="L7">
-        <v>1.000163850019478</v>
+        <v>1.018974175334968</v>
       </c>
       <c r="M7">
-        <v>0.9998231217191311</v>
+        <v>0.990324387469397</v>
       </c>
       <c r="N7">
-        <v>0.9998231217191311</v>
+        <v>0.990324387469397</v>
       </c>
       <c r="O7">
-        <v>0.9997795365424125</v>
+        <v>0.9843065049549882</v>
       </c>
       <c r="P7">
-        <v>0.9999047001109638</v>
+        <v>0.9912450489437674</v>
       </c>
       <c r="Q7">
-        <v>0.9999047001109638</v>
+        <v>0.9912450489437674</v>
       </c>
       <c r="R7">
-        <v>0.9999454893068802</v>
+        <v>0.9917053796809525</v>
       </c>
       <c r="S7">
-        <v>0.9999454893068802</v>
+        <v>0.9917053796809525</v>
       </c>
       <c r="T7">
-        <v>0.9999998101071391</v>
+        <v>1.00235646531428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000334305719453</v>
+        <v>1.01178644610788</v>
       </c>
       <c r="D8">
-        <v>0.9992432472056693</v>
+        <v>0.9714603179355952</v>
       </c>
       <c r="E8">
-        <v>1.001123545842572</v>
+        <v>1.057892789059102</v>
       </c>
       <c r="F8">
-        <v>1.000165948507114</v>
+        <v>0.99327425950502</v>
       </c>
       <c r="G8">
-        <v>0.9987261675062378</v>
+        <v>0.9602955222710651</v>
       </c>
       <c r="H8">
-        <v>1.000165948507114</v>
+        <v>0.99327425950502</v>
       </c>
       <c r="I8">
-        <v>0.9987261675062378</v>
+        <v>0.9602955222710651</v>
       </c>
       <c r="J8">
-        <v>1.000403586341121</v>
+        <v>1.019404638862835</v>
       </c>
       <c r="K8">
-        <v>1.000165948507114</v>
+        <v>0.99327425950502</v>
       </c>
       <c r="L8">
-        <v>1.000403586341121</v>
+        <v>1.019404638862835</v>
       </c>
       <c r="M8">
-        <v>0.9995648769236795</v>
+        <v>0.9898500805669501</v>
       </c>
       <c r="N8">
-        <v>0.9995648769236795</v>
+        <v>0.9898500805669501</v>
       </c>
       <c r="O8">
-        <v>0.9994576670176761</v>
+        <v>0.9837201596898318</v>
       </c>
       <c r="P8">
-        <v>0.9997652341181578</v>
+        <v>0.9909914735463068</v>
       </c>
       <c r="Q8">
-        <v>0.9997652341181578</v>
+        <v>0.9909914735463067</v>
       </c>
       <c r="R8">
-        <v>0.999865412715397</v>
+        <v>0.991562170035985</v>
       </c>
       <c r="S8">
-        <v>0.999865412715397</v>
+        <v>0.991562170035985</v>
       </c>
       <c r="T8">
-        <v>0.9999994668536947</v>
+        <v>1.002352328956916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000448253816612</v>
+        <v>1.012132038491075</v>
       </c>
       <c r="D9">
-        <v>0.9989863861518986</v>
+        <v>0.9706727453660846</v>
       </c>
       <c r="E9">
-        <v>1.001500742652026</v>
+        <v>1.059112867023264</v>
       </c>
       <c r="F9">
-        <v>1.000224624251616</v>
+        <v>0.9934028925636598</v>
       </c>
       <c r="G9">
-        <v>0.9982897567018026</v>
+        <v>0.958994546839809</v>
       </c>
       <c r="H9">
-        <v>1.000224624251616</v>
+        <v>0.9934028925636598</v>
       </c>
       <c r="I9">
-        <v>0.9982897567018026</v>
+        <v>0.958994546839809</v>
       </c>
       <c r="J9">
-        <v>1.000540279754059</v>
+        <v>1.019839514730139</v>
       </c>
       <c r="K9">
-        <v>1.000224624251616</v>
+        <v>0.9934028925636598</v>
       </c>
       <c r="L9">
-        <v>1.000540279754059</v>
+        <v>1.019839514730139</v>
       </c>
       <c r="M9">
-        <v>0.9994150182279309</v>
+        <v>0.9894170307849739</v>
       </c>
       <c r="N9">
-        <v>0.9994150182279309</v>
+        <v>0.9894170307849739</v>
       </c>
       <c r="O9">
-        <v>0.9992721408692535</v>
+        <v>0.983168935645344</v>
       </c>
       <c r="P9">
-        <v>0.9996848869024927</v>
+        <v>0.9907456513778691</v>
       </c>
       <c r="Q9">
-        <v>0.9996848869024926</v>
+        <v>0.9907456513778691</v>
       </c>
       <c r="R9">
-        <v>0.9998198212397735</v>
+        <v>0.9914099616743168</v>
       </c>
       <c r="S9">
-        <v>0.9998198212397735</v>
+        <v>0.9914099616743168</v>
       </c>
       <c r="T9">
-        <v>0.9999983405546691</v>
+        <v>1.002359100835672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.00098507171936</v>
+        <v>1.012561738849165</v>
       </c>
       <c r="D10">
-        <v>0.9977723547549905</v>
+        <v>0.9697035259148387</v>
       </c>
       <c r="E10">
-        <v>1.003294190872383</v>
+        <v>1.060628930401982</v>
       </c>
       <c r="F10">
-        <v>1.000498251742724</v>
+        <v>0.9935261718603348</v>
       </c>
       <c r="G10">
-        <v>0.9962411451694954</v>
+        <v>0.9573650091447378</v>
       </c>
       <c r="H10">
-        <v>1.000498251742724</v>
+        <v>0.9935261718603348</v>
       </c>
       <c r="I10">
-        <v>0.9962411451694954</v>
+        <v>0.9573650091447378</v>
       </c>
       <c r="J10">
-        <v>1.001185405054663</v>
+        <v>1.020395313501827</v>
       </c>
       <c r="K10">
-        <v>1.000498251742724</v>
+        <v>0.9935261718603348</v>
       </c>
       <c r="L10">
-        <v>1.001185405054663</v>
+        <v>1.020395313501827</v>
       </c>
       <c r="M10">
-        <v>0.9987132751120791</v>
+        <v>0.9888801613232825</v>
       </c>
       <c r="N10">
-        <v>0.9987132751120791</v>
+        <v>0.9888801613232825</v>
       </c>
       <c r="O10">
-        <v>0.9983996349930496</v>
+        <v>0.9824879495204679</v>
       </c>
       <c r="P10">
-        <v>0.9993082673222942</v>
+        <v>0.9904288315022999</v>
       </c>
       <c r="Q10">
-        <v>0.9993082673222942</v>
+        <v>0.9904288315023</v>
       </c>
       <c r="R10">
-        <v>0.9996057634274016</v>
+        <v>0.9912031665918086</v>
       </c>
       <c r="S10">
-        <v>0.9996057634274016</v>
+        <v>0.9912031665918086</v>
       </c>
       <c r="T10">
-        <v>0.9999960698856026</v>
+        <v>1.002363448278814</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001588762073739</v>
+        <v>1.002339278742156</v>
       </c>
       <c r="D11">
-        <v>0.9964107503156265</v>
+        <v>0.994949249225094</v>
       </c>
       <c r="E11">
-        <v>1.005287463090393</v>
+        <v>1.005120440640803</v>
       </c>
       <c r="F11">
-        <v>1.000817475326168</v>
+        <v>1.003175825993329</v>
       </c>
       <c r="G11">
-        <v>0.9939291326162398</v>
+        <v>0.9903457161984702</v>
       </c>
       <c r="H11">
-        <v>1.000817475326168</v>
+        <v>1.003175825993329</v>
       </c>
       <c r="I11">
-        <v>0.9939291326162398</v>
+        <v>0.9903457161984702</v>
       </c>
       <c r="J11">
-        <v>1.00190615952746</v>
+        <v>1.001995018273805</v>
       </c>
       <c r="K11">
-        <v>1.000817475326168</v>
+        <v>1.003175825993329</v>
       </c>
       <c r="L11">
-        <v>1.00190615952746</v>
+        <v>1.001995018273805</v>
       </c>
       <c r="M11">
-        <v>0.9979176460718497</v>
+        <v>0.9961703672361377</v>
       </c>
       <c r="N11">
-        <v>0.9979176460718497</v>
+        <v>0.9961703672361377</v>
       </c>
       <c r="O11">
-        <v>0.997415347486442</v>
+        <v>0.9957633278991231</v>
       </c>
       <c r="P11">
-        <v>0.9988842558232891</v>
+        <v>0.9985055201552017</v>
       </c>
       <c r="Q11">
-        <v>0.9988842558232891</v>
+        <v>0.9985055201552017</v>
       </c>
       <c r="R11">
-        <v>0.9993675606990089</v>
+        <v>0.9996730966147336</v>
       </c>
       <c r="S11">
-        <v>0.9993675606990089</v>
+        <v>0.9996730966147336</v>
       </c>
       <c r="T11">
-        <v>0.999989957158271</v>
+        <v>0.9996542548456095</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9865357185113219</v>
+        <v>1.001090818307713</v>
       </c>
       <c r="D12">
-        <v>1.031861426470666</v>
+        <v>0.997632103804085</v>
       </c>
       <c r="E12">
-        <v>0.9385568681491758</v>
+        <v>1.00251260242483</v>
       </c>
       <c r="F12">
-        <v>1.005447565159535</v>
+        <v>1.001394977850405</v>
       </c>
       <c r="G12">
-        <v>1.047002770488813</v>
+        <v>0.9955337460572574</v>
       </c>
       <c r="H12">
-        <v>1.005447565159535</v>
+        <v>1.001394977850405</v>
       </c>
       <c r="I12">
-        <v>1.047002770488813</v>
+        <v>0.9955337460572574</v>
       </c>
       <c r="J12">
-        <v>0.9787530665002225</v>
+        <v>1.000965647429167</v>
       </c>
       <c r="K12">
-        <v>1.005447565159535</v>
+        <v>1.001394977850405</v>
       </c>
       <c r="L12">
-        <v>0.9787530665002225</v>
+        <v>1.000965647429167</v>
       </c>
       <c r="M12">
-        <v>1.012877918494518</v>
+        <v>0.9982496967432124</v>
       </c>
       <c r="N12">
-        <v>1.012877918494518</v>
+        <v>0.9982496967432124</v>
       </c>
       <c r="O12">
-        <v>1.019205754486567</v>
+        <v>0.9980438324301698</v>
       </c>
       <c r="P12">
-        <v>1.010401134049524</v>
+        <v>0.9992981237789434</v>
       </c>
       <c r="Q12">
-        <v>1.010401134049524</v>
+        <v>0.9992981237789434</v>
       </c>
       <c r="R12">
-        <v>1.009162741827026</v>
+        <v>0.9998223372968089</v>
       </c>
       <c r="S12">
-        <v>1.009162741827026</v>
+        <v>0.9998223372968089</v>
       </c>
       <c r="T12">
-        <v>0.9980262358799559</v>
+        <v>0.9998549826455762</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9956332946746439</v>
+        <v>1.003527123144347</v>
       </c>
       <c r="D13">
-        <v>1.00870860637718</v>
+        <v>0.9923581001236945</v>
       </c>
       <c r="E13">
-        <v>0.9991227717885854</v>
+        <v>1.007950015640314</v>
       </c>
       <c r="F13">
-        <v>0.9874859973358197</v>
+        <v>1.004642321524886</v>
       </c>
       <c r="G13">
-        <v>1.02030236908294</v>
+        <v>0.9855124957486514</v>
       </c>
       <c r="H13">
-        <v>0.9874859973358197</v>
+        <v>1.004642321524886</v>
       </c>
       <c r="I13">
-        <v>1.02030236908294</v>
+        <v>0.9855124957486514</v>
       </c>
       <c r="J13">
-        <v>0.998986093031317</v>
+        <v>1.003068186742971</v>
       </c>
       <c r="K13">
-        <v>0.9874859973358197</v>
+        <v>1.004642321524886</v>
       </c>
       <c r="L13">
-        <v>0.998986093031317</v>
+        <v>1.003068186742971</v>
       </c>
       <c r="M13">
-        <v>1.009644231057128</v>
+        <v>0.9942903412458111</v>
       </c>
       <c r="N13">
-        <v>1.009644231057128</v>
+        <v>0.9942903412458111</v>
       </c>
       <c r="O13">
-        <v>1.009332356163812</v>
+        <v>0.9936462608717722</v>
       </c>
       <c r="P13">
-        <v>1.002258153150025</v>
+        <v>0.9977410013388361</v>
       </c>
       <c r="Q13">
-        <v>1.002258153150025</v>
+        <v>0.9977410013388361</v>
       </c>
       <c r="R13">
-        <v>0.998565114196474</v>
+        <v>0.9994663313853487</v>
       </c>
       <c r="S13">
-        <v>0.998565114196474</v>
+        <v>0.9994663313853487</v>
       </c>
       <c r="T13">
-        <v>1.001706522048414</v>
+        <v>0.999509707154144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9571627823628177</v>
+        <v>1.005954221529292</v>
       </c>
       <c r="D14">
-        <v>1.095466582991626</v>
+        <v>0.9871409206358023</v>
       </c>
       <c r="E14">
-        <v>0.8739474678005341</v>
+        <v>1.013045485733292</v>
       </c>
       <c r="F14">
-        <v>0.9652095947156103</v>
+        <v>1.008082645429092</v>
       </c>
       <c r="G14">
-        <v>1.167955588361192</v>
+        <v>0.9754325835907856</v>
       </c>
       <c r="H14">
-        <v>0.9652095947156103</v>
+        <v>1.008082645429092</v>
       </c>
       <c r="I14">
-        <v>1.167955588361192</v>
+        <v>0.9754325835907856</v>
       </c>
       <c r="J14">
-        <v>0.9538513414715889</v>
+        <v>1.005078326483024</v>
       </c>
       <c r="K14">
-        <v>0.9652095947156103</v>
+        <v>1.008082645429092</v>
       </c>
       <c r="L14">
-        <v>0.9538513414715889</v>
+        <v>1.005078326483024</v>
       </c>
       <c r="M14">
-        <v>1.06090346491639</v>
+        <v>0.9902554550369049</v>
       </c>
       <c r="N14">
-        <v>1.06090346491639</v>
+        <v>0.9902554550369049</v>
       </c>
       <c r="O14">
-        <v>1.072424504274802</v>
+        <v>0.989217276903204</v>
       </c>
       <c r="P14">
-        <v>1.029005508182797</v>
+        <v>0.9961978518343004</v>
       </c>
       <c r="Q14">
-        <v>1.029005508182797</v>
+        <v>0.9961978518343004</v>
       </c>
       <c r="R14">
-        <v>1.013056529816001</v>
+        <v>0.9991690502329982</v>
       </c>
       <c r="S14">
-        <v>1.013056529816001</v>
+        <v>0.9991690502329982</v>
       </c>
       <c r="T14">
-        <v>1.002265559617228</v>
+        <v>0.9991223639002148</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9881902067147117</v>
+        <v>1.002140183261535</v>
       </c>
       <c r="D15">
-        <v>1.025298299667422</v>
+        <v>0.9953835615213728</v>
       </c>
       <c r="E15">
-        <v>0.9739367055147482</v>
+        <v>1.004623781255899</v>
       </c>
       <c r="F15">
-        <v>0.9849473103608972</v>
+        <v>1.002953963599517</v>
       </c>
       <c r="G15">
-        <v>1.048939658473913</v>
+        <v>0.9911521114201309</v>
       </c>
       <c r="H15">
-        <v>0.9849473103608972</v>
+        <v>1.002953963599517</v>
       </c>
       <c r="I15">
-        <v>1.048939658473913</v>
+        <v>0.9911521114201309</v>
       </c>
       <c r="J15">
-        <v>0.9895247385780078</v>
+        <v>1.001805291351322</v>
       </c>
       <c r="K15">
-        <v>0.9849473103608972</v>
+        <v>1.002953963599517</v>
       </c>
       <c r="L15">
-        <v>0.9895247385780078</v>
+        <v>1.001805291351322</v>
       </c>
       <c r="M15">
-        <v>1.01923219852596</v>
+        <v>0.9964787013857263</v>
       </c>
       <c r="N15">
-        <v>1.01923219852596</v>
+        <v>0.9964787013857263</v>
       </c>
       <c r="O15">
-        <v>1.021254232239781</v>
+        <v>0.996113654764275</v>
       </c>
       <c r="P15">
-        <v>1.007803902470939</v>
+        <v>0.9986371221236566</v>
       </c>
       <c r="Q15">
-        <v>1.007803902470939</v>
+        <v>0.9986371221236566</v>
       </c>
       <c r="R15">
-        <v>1.002089754443429</v>
+        <v>0.9997163324926219</v>
       </c>
       <c r="S15">
-        <v>1.002089754443429</v>
+        <v>0.9997163324926219</v>
       </c>
       <c r="T15">
-        <v>1.001806153218283</v>
+        <v>0.9996764820682961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.041619675660141</v>
+        <v>1.004129387183456</v>
       </c>
       <c r="D16">
-        <v>0.910035086782171</v>
+        <v>0.9910898029337273</v>
       </c>
       <c r="E16">
-        <v>1.092214857372638</v>
+        <v>1.008969197236928</v>
       </c>
       <c r="F16">
-        <v>1.055700658131045</v>
+        <v>1.005659576010293</v>
       </c>
       <c r="G16">
-        <v>0.8285397820073548</v>
+        <v>0.982939791358942</v>
       </c>
       <c r="H16">
-        <v>1.055700658131045</v>
+        <v>1.005659576010293</v>
       </c>
       <c r="I16">
-        <v>0.8285397820073548</v>
+        <v>0.982939791358942</v>
       </c>
       <c r="J16">
-        <v>1.035825025029374</v>
+        <v>1.003499677102932</v>
       </c>
       <c r="K16">
-        <v>1.055700658131045</v>
+        <v>1.005659576010293</v>
       </c>
       <c r="L16">
-        <v>1.035825025029374</v>
+        <v>1.003499677102932</v>
       </c>
       <c r="M16">
-        <v>0.9321824035183645</v>
+        <v>0.9932197342309368</v>
       </c>
       <c r="N16">
-        <v>0.9321824035183645</v>
+        <v>0.9932197342309368</v>
       </c>
       <c r="O16">
-        <v>0.9247999646063</v>
+        <v>0.992509757131867</v>
       </c>
       <c r="P16">
-        <v>0.9733551550559246</v>
+        <v>0.9973663481573887</v>
       </c>
       <c r="Q16">
-        <v>0.9733551550559246</v>
+        <v>0.9973663481573888</v>
       </c>
       <c r="R16">
-        <v>0.9939415308247047</v>
+        <v>0.9994396551206148</v>
       </c>
       <c r="S16">
-        <v>0.9939415308247047</v>
+        <v>0.9994396551206148</v>
       </c>
       <c r="T16">
-        <v>0.9939891808304541</v>
+        <v>0.9993812386377131</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.033733948848811</v>
+        <v>1.007908174742356</v>
       </c>
       <c r="D17">
-        <v>0.9265712149457282</v>
+        <v>0.9829263397017703</v>
       </c>
       <c r="E17">
-        <v>1.080436542495413</v>
+        <v>1.017263129467125</v>
       </c>
       <c r="F17">
-        <v>1.040969021809717</v>
+        <v>1.010783065396597</v>
       </c>
       <c r="G17">
-        <v>0.8625667217646801</v>
+        <v>0.9673538067228693</v>
       </c>
       <c r="H17">
-        <v>1.040969021809717</v>
+        <v>1.010783065396597</v>
       </c>
       <c r="I17">
-        <v>0.8625667217646801</v>
+        <v>0.9673538067228693</v>
       </c>
       <c r="J17">
-        <v>1.030756547031008</v>
+        <v>1.006725085688539</v>
       </c>
       <c r="K17">
-        <v>1.040969021809717</v>
+        <v>1.010783065396597</v>
       </c>
       <c r="L17">
-        <v>1.030756547031008</v>
+        <v>1.006725085688539</v>
       </c>
       <c r="M17">
-        <v>0.946661634397844</v>
+        <v>0.9870394462057041</v>
       </c>
       <c r="N17">
-        <v>0.946661634397844</v>
+        <v>0.9870394462057041</v>
       </c>
       <c r="O17">
-        <v>0.9399648279138054</v>
+        <v>0.9856684107043928</v>
       </c>
       <c r="P17">
-        <v>0.9780974302018016</v>
+        <v>0.9949539859360019</v>
       </c>
       <c r="Q17">
-        <v>0.9780974302018016</v>
+        <v>0.9949539859360019</v>
       </c>
       <c r="R17">
-        <v>0.9938153281037805</v>
+        <v>0.9989112558011508</v>
       </c>
       <c r="S17">
-        <v>0.9938153281037805</v>
+        <v>0.9989112558011508</v>
       </c>
       <c r="T17">
-        <v>0.9958389994825595</v>
+        <v>0.9988266002865428</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.017863615986636</v>
+        <v>1.011594742309736</v>
       </c>
       <c r="D18">
-        <v>0.9598775204136941</v>
+        <v>0.9749595437174576</v>
       </c>
       <c r="E18">
-        <v>1.05644294697673</v>
+        <v>1.02537565838375</v>
       </c>
       <c r="F18">
-        <v>1.011530260712762</v>
+        <v>1.015768614426227</v>
       </c>
       <c r="G18">
-        <v>0.9309680699055408</v>
+        <v>0.9521546287882224</v>
       </c>
       <c r="H18">
-        <v>1.011530260712762</v>
+        <v>1.015768614426227</v>
       </c>
       <c r="I18">
-        <v>0.9309680699055408</v>
+        <v>0.9521546287882224</v>
       </c>
       <c r="J18">
-        <v>1.020469932037749</v>
+        <v>1.009877096495346</v>
       </c>
       <c r="K18">
-        <v>1.011530260712762</v>
+        <v>1.015768614426227</v>
       </c>
       <c r="L18">
-        <v>1.020469932037749</v>
+        <v>1.009877096495346</v>
       </c>
       <c r="M18">
-        <v>0.975719000971645</v>
+        <v>0.9810158626417842</v>
       </c>
       <c r="N18">
-        <v>0.975719000971645</v>
+        <v>0.9810158626417842</v>
       </c>
       <c r="O18">
-        <v>0.970438507452328</v>
+        <v>0.9789970896670086</v>
       </c>
       <c r="P18">
-        <v>0.9876560875520172</v>
+        <v>0.9926001132365986</v>
       </c>
       <c r="Q18">
-        <v>0.9876560875520172</v>
+        <v>0.9926001132365986</v>
       </c>
       <c r="R18">
-        <v>0.9936246308422034</v>
+        <v>0.9983922385340058</v>
       </c>
       <c r="S18">
-        <v>0.9936246308422034</v>
+        <v>0.9983922385340058</v>
       </c>
       <c r="T18">
-        <v>0.9995253910055185</v>
+        <v>0.9982883806867898</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.019414606713499</v>
+        <v>1.000135865244909</v>
       </c>
       <c r="D19">
-        <v>0.9560915599031681</v>
+        <v>0.9996923661889752</v>
       </c>
       <c r="E19">
-        <v>1.064377530134735</v>
+        <v>1.000456528876059</v>
       </c>
       <c r="F19">
-        <v>1.010420814643022</v>
+        <v>1.000067856894629</v>
       </c>
       <c r="G19">
-        <v>0.9258313347145808</v>
+        <v>0.9994823934187841</v>
       </c>
       <c r="H19">
-        <v>1.010420814643022</v>
+        <v>1.000067856894629</v>
       </c>
       <c r="I19">
-        <v>0.9258313347145808</v>
+        <v>0.9994823934187841</v>
       </c>
       <c r="J19">
-        <v>1.023115756125794</v>
+        <v>1.000163850019478</v>
       </c>
       <c r="K19">
-        <v>1.010420814643022</v>
+        <v>1.000067856894629</v>
       </c>
       <c r="L19">
-        <v>1.023115756125794</v>
+        <v>1.000163850019478</v>
       </c>
       <c r="M19">
-        <v>0.9744735454201875</v>
+        <v>0.9998231217191311</v>
       </c>
       <c r="N19">
-        <v>0.9744735454201875</v>
+        <v>0.9998231217191311</v>
       </c>
       <c r="O19">
-        <v>0.9683462169145143</v>
+        <v>0.9997795365424125</v>
       </c>
       <c r="P19">
-        <v>0.9864559684944655</v>
+        <v>0.9999047001109638</v>
       </c>
       <c r="Q19">
-        <v>0.9864559684944655</v>
+        <v>0.9999047001109638</v>
       </c>
       <c r="R19">
-        <v>0.9924471800316046</v>
+        <v>0.9999454893068802</v>
       </c>
       <c r="S19">
-        <v>0.9924471800316046</v>
+        <v>0.9999454893068802</v>
       </c>
       <c r="T19">
-        <v>0.999875267039133</v>
+        <v>0.9999998101071391</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000014642434032</v>
+        <v>1.000334305719453</v>
       </c>
       <c r="D20">
-        <v>0.9999765574580197</v>
+        <v>0.9992432472056693</v>
       </c>
       <c r="E20">
-        <v>0.9999092924769289</v>
+        <v>1.001123545842572</v>
       </c>
       <c r="F20">
-        <v>1.000120550367829</v>
+        <v>1.000165948507114</v>
       </c>
       <c r="G20">
-        <v>0.9999096907033812</v>
+        <v>0.9987261675062378</v>
       </c>
       <c r="H20">
-        <v>1.000120550367829</v>
+        <v>1.000165948507114</v>
       </c>
       <c r="I20">
-        <v>0.9999096907033812</v>
+        <v>0.9987261675062378</v>
       </c>
       <c r="J20">
-        <v>0.9999710567263461</v>
+        <v>1.000403586341121</v>
       </c>
       <c r="K20">
-        <v>1.000120550367829</v>
+        <v>1.000165948507114</v>
       </c>
       <c r="L20">
-        <v>0.9999710567263461</v>
+        <v>1.000403586341121</v>
       </c>
       <c r="M20">
-        <v>0.9999403737148637</v>
+        <v>0.9995648769236795</v>
       </c>
       <c r="N20">
-        <v>0.9999403737148637</v>
+        <v>0.9995648769236795</v>
       </c>
       <c r="O20">
-        <v>0.9999524349625823</v>
+        <v>0.9994576670176761</v>
       </c>
       <c r="P20">
-        <v>1.000000432599186</v>
+        <v>0.9997652341181578</v>
       </c>
       <c r="Q20">
-        <v>1.000000432599186</v>
+        <v>0.9997652341181578</v>
       </c>
       <c r="R20">
-        <v>1.000030462041346</v>
+        <v>0.999865412715397</v>
       </c>
       <c r="S20">
-        <v>1.000030462041346</v>
+        <v>0.999865412715397</v>
       </c>
       <c r="T20">
-        <v>0.9999836316944227</v>
+        <v>0.9999994668536947</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000163379709217</v>
+        <v>1.000448253816612</v>
       </c>
       <c r="D21">
-        <v>0.9996099119582463</v>
+        <v>0.9989863861518986</v>
       </c>
       <c r="E21">
-        <v>1.000808048506368</v>
+        <v>1.001500742652026</v>
       </c>
       <c r="F21">
-        <v>0.9998800995005648</v>
+        <v>1.000224624251616</v>
       </c>
       <c r="G21">
-        <v>0.9994440820038869</v>
+        <v>0.9982897567018026</v>
       </c>
       <c r="H21">
-        <v>0.9998800995005648</v>
+        <v>1.000224624251616</v>
       </c>
       <c r="I21">
-        <v>0.9994440820038869</v>
+        <v>0.9982897567018026</v>
       </c>
       <c r="J21">
-        <v>1.000279954001243</v>
+        <v>1.000540279754059</v>
       </c>
       <c r="K21">
-        <v>0.9998800995005648</v>
+        <v>1.000224624251616</v>
       </c>
       <c r="L21">
-        <v>1.000279954001243</v>
+        <v>1.000540279754059</v>
       </c>
       <c r="M21">
-        <v>0.9998620180025648</v>
+        <v>0.9994150182279309</v>
       </c>
       <c r="N21">
-        <v>0.9998620180025648</v>
+        <v>0.9994150182279309</v>
       </c>
       <c r="O21">
-        <v>0.9997779826544586</v>
+        <v>0.9992721408692535</v>
       </c>
       <c r="P21">
-        <v>0.9998680451685648</v>
+        <v>0.9996848869024927</v>
       </c>
       <c r="Q21">
-        <v>0.9998680451685648</v>
+        <v>0.9996848869024926</v>
       </c>
       <c r="R21">
-        <v>0.9998710587515648</v>
+        <v>0.9998198212397735</v>
       </c>
       <c r="S21">
-        <v>0.9998710587515648</v>
+        <v>0.9998198212397735</v>
       </c>
       <c r="T21">
-        <v>1.000030912613254</v>
+        <v>0.9999983405546691</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.000687059536693</v>
+        <v>1.00098507171936</v>
       </c>
       <c r="D22">
-        <v>0.9985608486728237</v>
+        <v>0.9977723547549905</v>
       </c>
       <c r="E22">
-        <v>1.00092842242662</v>
+        <v>1.003294190872383</v>
       </c>
       <c r="F22">
-        <v>1.001382204634804</v>
+        <v>1.000498251742724</v>
       </c>
       <c r="G22">
-        <v>0.9970173271740872</v>
+        <v>0.9962411451694954</v>
       </c>
       <c r="H22">
-        <v>1.001382204634804</v>
+        <v>1.000498251742724</v>
       </c>
       <c r="I22">
-        <v>0.9970173271740872</v>
+        <v>0.9962411451694954</v>
       </c>
       <c r="J22">
-        <v>1.00040098656707</v>
+        <v>1.001185405054663</v>
       </c>
       <c r="K22">
-        <v>1.001382204634804</v>
+        <v>1.000498251742724</v>
       </c>
       <c r="L22">
-        <v>1.00040098656707</v>
+        <v>1.001185405054663</v>
       </c>
       <c r="M22">
-        <v>0.9987091568705788</v>
+        <v>0.9987132751120791</v>
       </c>
       <c r="N22">
-        <v>0.9987091568705788</v>
+        <v>0.9987132751120791</v>
       </c>
       <c r="O22">
-        <v>0.9986597208046604</v>
+        <v>0.9983996349930496</v>
       </c>
       <c r="P22">
-        <v>0.9996001727919873</v>
+        <v>0.9993082673222942</v>
       </c>
       <c r="Q22">
-        <v>0.9996001727919873</v>
+        <v>0.9993082673222942</v>
       </c>
       <c r="R22">
-        <v>1.000045680752691</v>
+        <v>0.9996057634274016</v>
       </c>
       <c r="S22">
-        <v>1.000045680752691</v>
+        <v>0.9996057634274016</v>
       </c>
       <c r="T22">
-        <v>0.9998294748353498</v>
+        <v>0.9999960698856026</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.001588762073739</v>
+      </c>
+      <c r="D23">
+        <v>0.9964107503156265</v>
+      </c>
+      <c r="E23">
+        <v>1.005287463090393</v>
+      </c>
+      <c r="F23">
+        <v>1.000817475326168</v>
+      </c>
+      <c r="G23">
+        <v>0.9939291326162398</v>
+      </c>
+      <c r="H23">
+        <v>1.000817475326168</v>
+      </c>
+      <c r="I23">
+        <v>0.9939291326162398</v>
+      </c>
+      <c r="J23">
+        <v>1.00190615952746</v>
+      </c>
+      <c r="K23">
+        <v>1.000817475326168</v>
+      </c>
+      <c r="L23">
+        <v>1.00190615952746</v>
+      </c>
+      <c r="M23">
+        <v>0.9979176460718497</v>
+      </c>
+      <c r="N23">
+        <v>0.9979176460718497</v>
+      </c>
+      <c r="O23">
+        <v>0.997415347486442</v>
+      </c>
+      <c r="P23">
+        <v>0.9988842558232891</v>
+      </c>
+      <c r="Q23">
+        <v>0.9988842558232891</v>
+      </c>
+      <c r="R23">
+        <v>0.9993675606990089</v>
+      </c>
+      <c r="S23">
+        <v>0.9993675606990089</v>
+      </c>
+      <c r="T23">
+        <v>0.999989957158271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9865357185113219</v>
+      </c>
+      <c r="D24">
+        <v>1.031861426470666</v>
+      </c>
+      <c r="E24">
+        <v>0.9385568681491758</v>
+      </c>
+      <c r="F24">
+        <v>1.005447565159535</v>
+      </c>
+      <c r="G24">
+        <v>1.047002770488813</v>
+      </c>
+      <c r="H24">
+        <v>1.005447565159535</v>
+      </c>
+      <c r="I24">
+        <v>1.047002770488813</v>
+      </c>
+      <c r="J24">
+        <v>0.9787530665002225</v>
+      </c>
+      <c r="K24">
+        <v>1.005447565159535</v>
+      </c>
+      <c r="L24">
+        <v>0.9787530665002225</v>
+      </c>
+      <c r="M24">
+        <v>1.012877918494518</v>
+      </c>
+      <c r="N24">
+        <v>1.012877918494518</v>
+      </c>
+      <c r="O24">
+        <v>1.019205754486567</v>
+      </c>
+      <c r="P24">
+        <v>1.010401134049524</v>
+      </c>
+      <c r="Q24">
+        <v>1.010401134049524</v>
+      </c>
+      <c r="R24">
+        <v>1.009162741827026</v>
+      </c>
+      <c r="S24">
+        <v>1.009162741827026</v>
+      </c>
+      <c r="T24">
+        <v>0.9980262358799559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9956332946746439</v>
+      </c>
+      <c r="D25">
+        <v>1.00870860637718</v>
+      </c>
+      <c r="E25">
+        <v>0.9991227717885854</v>
+      </c>
+      <c r="F25">
+        <v>0.9874859973358197</v>
+      </c>
+      <c r="G25">
+        <v>1.02030236908294</v>
+      </c>
+      <c r="H25">
+        <v>0.9874859973358197</v>
+      </c>
+      <c r="I25">
+        <v>1.02030236908294</v>
+      </c>
+      <c r="J25">
+        <v>0.998986093031317</v>
+      </c>
+      <c r="K25">
+        <v>0.9874859973358197</v>
+      </c>
+      <c r="L25">
+        <v>0.998986093031317</v>
+      </c>
+      <c r="M25">
+        <v>1.009644231057128</v>
+      </c>
+      <c r="N25">
+        <v>1.009644231057128</v>
+      </c>
+      <c r="O25">
+        <v>1.009332356163812</v>
+      </c>
+      <c r="P25">
+        <v>1.002258153150025</v>
+      </c>
+      <c r="Q25">
+        <v>1.002258153150025</v>
+      </c>
+      <c r="R25">
+        <v>0.998565114196474</v>
+      </c>
+      <c r="S25">
+        <v>0.998565114196474</v>
+      </c>
+      <c r="T25">
+        <v>1.001706522048414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9571627823628177</v>
+      </c>
+      <c r="D26">
+        <v>1.095466582991626</v>
+      </c>
+      <c r="E26">
+        <v>0.8739474678005341</v>
+      </c>
+      <c r="F26">
+        <v>0.9652095947156103</v>
+      </c>
+      <c r="G26">
+        <v>1.167955588361192</v>
+      </c>
+      <c r="H26">
+        <v>0.9652095947156103</v>
+      </c>
+      <c r="I26">
+        <v>1.167955588361192</v>
+      </c>
+      <c r="J26">
+        <v>0.9538513414715889</v>
+      </c>
+      <c r="K26">
+        <v>0.9652095947156103</v>
+      </c>
+      <c r="L26">
+        <v>0.9538513414715889</v>
+      </c>
+      <c r="M26">
+        <v>1.06090346491639</v>
+      </c>
+      <c r="N26">
+        <v>1.06090346491639</v>
+      </c>
+      <c r="O26">
+        <v>1.072424504274802</v>
+      </c>
+      <c r="P26">
+        <v>1.029005508182797</v>
+      </c>
+      <c r="Q26">
+        <v>1.029005508182797</v>
+      </c>
+      <c r="R26">
+        <v>1.013056529816001</v>
+      </c>
+      <c r="S26">
+        <v>1.013056529816001</v>
+      </c>
+      <c r="T26">
+        <v>1.002265559617228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9881902067147117</v>
+      </c>
+      <c r="D27">
+        <v>1.025298299667422</v>
+      </c>
+      <c r="E27">
+        <v>0.9739367055147482</v>
+      </c>
+      <c r="F27">
+        <v>0.9849473103608972</v>
+      </c>
+      <c r="G27">
+        <v>1.048939658473913</v>
+      </c>
+      <c r="H27">
+        <v>0.9849473103608972</v>
+      </c>
+      <c r="I27">
+        <v>1.048939658473913</v>
+      </c>
+      <c r="J27">
+        <v>0.9895247385780078</v>
+      </c>
+      <c r="K27">
+        <v>0.9849473103608972</v>
+      </c>
+      <c r="L27">
+        <v>0.9895247385780078</v>
+      </c>
+      <c r="M27">
+        <v>1.01923219852596</v>
+      </c>
+      <c r="N27">
+        <v>1.01923219852596</v>
+      </c>
+      <c r="O27">
+        <v>1.021254232239781</v>
+      </c>
+      <c r="P27">
+        <v>1.007803902470939</v>
+      </c>
+      <c r="Q27">
+        <v>1.007803902470939</v>
+      </c>
+      <c r="R27">
+        <v>1.002089754443429</v>
+      </c>
+      <c r="S27">
+        <v>1.002089754443429</v>
+      </c>
+      <c r="T27">
+        <v>1.001806153218283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.041619675660141</v>
+      </c>
+      <c r="D28">
+        <v>0.910035086782171</v>
+      </c>
+      <c r="E28">
+        <v>1.092214857372638</v>
+      </c>
+      <c r="F28">
+        <v>1.055700658131045</v>
+      </c>
+      <c r="G28">
+        <v>0.8285397820073548</v>
+      </c>
+      <c r="H28">
+        <v>1.055700658131045</v>
+      </c>
+      <c r="I28">
+        <v>0.8285397820073548</v>
+      </c>
+      <c r="J28">
+        <v>1.035825025029374</v>
+      </c>
+      <c r="K28">
+        <v>1.055700658131045</v>
+      </c>
+      <c r="L28">
+        <v>1.035825025029374</v>
+      </c>
+      <c r="M28">
+        <v>0.9321824035183645</v>
+      </c>
+      <c r="N28">
+        <v>0.9321824035183645</v>
+      </c>
+      <c r="O28">
+        <v>0.9247999646063</v>
+      </c>
+      <c r="P28">
+        <v>0.9733551550559246</v>
+      </c>
+      <c r="Q28">
+        <v>0.9733551550559246</v>
+      </c>
+      <c r="R28">
+        <v>0.9939415308247047</v>
+      </c>
+      <c r="S28">
+        <v>0.9939415308247047</v>
+      </c>
+      <c r="T28">
+        <v>0.9939891808304541</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.033733948848811</v>
+      </c>
+      <c r="D29">
+        <v>0.9265712149457282</v>
+      </c>
+      <c r="E29">
+        <v>1.080436542495413</v>
+      </c>
+      <c r="F29">
+        <v>1.040969021809717</v>
+      </c>
+      <c r="G29">
+        <v>0.8625667217646801</v>
+      </c>
+      <c r="H29">
+        <v>1.040969021809717</v>
+      </c>
+      <c r="I29">
+        <v>0.8625667217646801</v>
+      </c>
+      <c r="J29">
+        <v>1.030756547031008</v>
+      </c>
+      <c r="K29">
+        <v>1.040969021809717</v>
+      </c>
+      <c r="L29">
+        <v>1.030756547031008</v>
+      </c>
+      <c r="M29">
+        <v>0.946661634397844</v>
+      </c>
+      <c r="N29">
+        <v>0.946661634397844</v>
+      </c>
+      <c r="O29">
+        <v>0.9399648279138054</v>
+      </c>
+      <c r="P29">
+        <v>0.9780974302018016</v>
+      </c>
+      <c r="Q29">
+        <v>0.9780974302018016</v>
+      </c>
+      <c r="R29">
+        <v>0.9938153281037805</v>
+      </c>
+      <c r="S29">
+        <v>0.9938153281037805</v>
+      </c>
+      <c r="T29">
+        <v>0.9958389994825595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.017863615986636</v>
+      </c>
+      <c r="D30">
+        <v>0.9598775204136941</v>
+      </c>
+      <c r="E30">
+        <v>1.05644294697673</v>
+      </c>
+      <c r="F30">
+        <v>1.011530260712762</v>
+      </c>
+      <c r="G30">
+        <v>0.9309680699055408</v>
+      </c>
+      <c r="H30">
+        <v>1.011530260712762</v>
+      </c>
+      <c r="I30">
+        <v>0.9309680699055408</v>
+      </c>
+      <c r="J30">
+        <v>1.020469932037749</v>
+      </c>
+      <c r="K30">
+        <v>1.011530260712762</v>
+      </c>
+      <c r="L30">
+        <v>1.020469932037749</v>
+      </c>
+      <c r="M30">
+        <v>0.975719000971645</v>
+      </c>
+      <c r="N30">
+        <v>0.975719000971645</v>
+      </c>
+      <c r="O30">
+        <v>0.970438507452328</v>
+      </c>
+      <c r="P30">
+        <v>0.9876560875520172</v>
+      </c>
+      <c r="Q30">
+        <v>0.9876560875520172</v>
+      </c>
+      <c r="R30">
+        <v>0.9936246308422034</v>
+      </c>
+      <c r="S30">
+        <v>0.9936246308422034</v>
+      </c>
+      <c r="T30">
+        <v>0.9995253910055185</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.019414606713499</v>
+      </c>
+      <c r="D31">
+        <v>0.9560915599031681</v>
+      </c>
+      <c r="E31">
+        <v>1.064377530134735</v>
+      </c>
+      <c r="F31">
+        <v>1.010420814643022</v>
+      </c>
+      <c r="G31">
+        <v>0.9258313347145808</v>
+      </c>
+      <c r="H31">
+        <v>1.010420814643022</v>
+      </c>
+      <c r="I31">
+        <v>0.9258313347145808</v>
+      </c>
+      <c r="J31">
+        <v>1.023115756125794</v>
+      </c>
+      <c r="K31">
+        <v>1.010420814643022</v>
+      </c>
+      <c r="L31">
+        <v>1.023115756125794</v>
+      </c>
+      <c r="M31">
+        <v>0.9744735454201875</v>
+      </c>
+      <c r="N31">
+        <v>0.9744735454201875</v>
+      </c>
+      <c r="O31">
+        <v>0.9683462169145143</v>
+      </c>
+      <c r="P31">
+        <v>0.9864559684944655</v>
+      </c>
+      <c r="Q31">
+        <v>0.9864559684944655</v>
+      </c>
+      <c r="R31">
+        <v>0.9924471800316046</v>
+      </c>
+      <c r="S31">
+        <v>0.9924471800316046</v>
+      </c>
+      <c r="T31">
+        <v>0.999875267039133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.048851425616438</v>
+      </c>
+      <c r="D32">
+        <v>0.8949005994520548</v>
+      </c>
+      <c r="E32">
+        <v>1.102819604109589</v>
+      </c>
+      <c r="F32">
+        <v>1.069307399726027</v>
+      </c>
+      <c r="G32">
+        <v>0.7972666515068493</v>
+      </c>
+      <c r="H32">
+        <v>1.069307399726027</v>
+      </c>
+      <c r="I32">
+        <v>0.7972666515068493</v>
+      </c>
+      <c r="J32">
+        <v>1.040433319178082</v>
+      </c>
+      <c r="K32">
+        <v>1.069307399726027</v>
+      </c>
+      <c r="L32">
+        <v>1.040433319178082</v>
+      </c>
+      <c r="M32">
+        <v>0.9188499853424656</v>
+      </c>
+      <c r="N32">
+        <v>0.9188499853424656</v>
+      </c>
+      <c r="O32">
+        <v>0.9108668567123287</v>
+      </c>
+      <c r="P32">
+        <v>0.9690024568036527</v>
+      </c>
+      <c r="Q32">
+        <v>0.9690024568036527</v>
+      </c>
+      <c r="R32">
+        <v>0.9940786925342462</v>
+      </c>
+      <c r="S32">
+        <v>0.9940786925342462</v>
+      </c>
+      <c r="T32">
+        <v>0.9922631665981734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.004377992631579</v>
+      </c>
+      <c r="D33">
+        <v>0.9909270273684211</v>
+      </c>
+      <c r="E33">
+        <v>1.007763908947368</v>
+      </c>
+      <c r="F33">
+        <v>1.006464006315789</v>
+      </c>
+      <c r="G33">
+        <v>0.9811851247368422</v>
+      </c>
+      <c r="H33">
+        <v>1.006464006315789</v>
+      </c>
+      <c r="I33">
+        <v>0.9811851247368422</v>
+      </c>
+      <c r="J33">
+        <v>1.003519541052632</v>
+      </c>
+      <c r="K33">
+        <v>1.006464006315789</v>
+      </c>
+      <c r="L33">
+        <v>1.003519541052632</v>
+      </c>
+      <c r="M33">
+        <v>0.9923523328947369</v>
+      </c>
+      <c r="N33">
+        <v>0.9923523328947369</v>
+      </c>
+      <c r="O33">
+        <v>0.9918772310526317</v>
+      </c>
+      <c r="P33">
+        <v>0.9970562240350876</v>
+      </c>
+      <c r="Q33">
+        <v>0.9970562240350876</v>
+      </c>
+      <c r="R33">
+        <v>0.9994081696052631</v>
+      </c>
+      <c r="S33">
+        <v>0.9994081696052631</v>
+      </c>
+      <c r="T33">
+        <v>0.9990396001754386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.019575398947368</v>
+      </c>
+      <c r="D34">
+        <v>0.9539703252631577</v>
+      </c>
+      <c r="E34">
+        <v>1.082744658947368</v>
+      </c>
+      <c r="F34">
+        <v>0.9980270442105262</v>
+      </c>
+      <c r="G34">
+        <v>0.9302307978947369</v>
+      </c>
+      <c r="H34">
+        <v>0.9980270442105262</v>
+      </c>
+      <c r="I34">
+        <v>0.9302307978947369</v>
+      </c>
+      <c r="J34">
+        <v>1.028443041052632</v>
+      </c>
+      <c r="K34">
+        <v>0.9980270442105262</v>
+      </c>
+      <c r="L34">
+        <v>1.028443041052632</v>
+      </c>
+      <c r="M34">
+        <v>0.9793369194736843</v>
+      </c>
+      <c r="N34">
+        <v>0.9793369194736843</v>
+      </c>
+      <c r="O34">
+        <v>0.9708813880701754</v>
+      </c>
+      <c r="P34">
+        <v>0.9855669610526316</v>
+      </c>
+      <c r="Q34">
+        <v>0.9855669610526316</v>
+      </c>
+      <c r="R34">
+        <v>0.9886819818421053</v>
+      </c>
+      <c r="S34">
+        <v>0.9886819818421053</v>
+      </c>
+      <c r="T34">
+        <v>1.002165211052632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.070451858556717</v>
+      </c>
+      <c r="D35">
+        <v>0.8402911079178972</v>
+      </c>
+      <c r="E35">
+        <v>1.237832947060686</v>
+      </c>
+      <c r="F35">
+        <v>1.03470396809494</v>
+      </c>
+      <c r="G35">
+        <v>0.7319928959455085</v>
+      </c>
+      <c r="H35">
+        <v>1.03470396809494</v>
+      </c>
+      <c r="I35">
+        <v>0.7319928959455085</v>
+      </c>
+      <c r="J35">
+        <v>1.085162910880466</v>
+      </c>
+      <c r="K35">
+        <v>1.03470396809494</v>
+      </c>
+      <c r="L35">
+        <v>1.085162910880466</v>
+      </c>
+      <c r="M35">
+        <v>0.9085779034129871</v>
+      </c>
+      <c r="N35">
+        <v>0.9085779034129871</v>
+      </c>
+      <c r="O35">
+        <v>0.8858156382479571</v>
+      </c>
+      <c r="P35">
+        <v>0.9506199249736379</v>
+      </c>
+      <c r="Q35">
+        <v>0.9506199249736379</v>
+      </c>
+      <c r="R35">
+        <v>0.9716409357539634</v>
+      </c>
+      <c r="S35">
+        <v>0.9716409357539634</v>
+      </c>
+      <c r="T35">
+        <v>1.000072614742702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000014642434032</v>
+      </c>
+      <c r="D36">
+        <v>0.9999765574580197</v>
+      </c>
+      <c r="E36">
+        <v>0.9999092924769289</v>
+      </c>
+      <c r="F36">
+        <v>1.000120550367829</v>
+      </c>
+      <c r="G36">
+        <v>0.9999096907033812</v>
+      </c>
+      <c r="H36">
+        <v>1.000120550367829</v>
+      </c>
+      <c r="I36">
+        <v>0.9999096907033812</v>
+      </c>
+      <c r="J36">
+        <v>0.9999710567263461</v>
+      </c>
+      <c r="K36">
+        <v>1.000120550367829</v>
+      </c>
+      <c r="L36">
+        <v>0.9999710567263461</v>
+      </c>
+      <c r="M36">
+        <v>0.9999403737148637</v>
+      </c>
+      <c r="N36">
+        <v>0.9999403737148637</v>
+      </c>
+      <c r="O36">
+        <v>0.9999524349625823</v>
+      </c>
+      <c r="P36">
+        <v>1.000000432599186</v>
+      </c>
+      <c r="Q36">
+        <v>1.000000432599186</v>
+      </c>
+      <c r="R36">
+        <v>1.000030462041346</v>
+      </c>
+      <c r="S36">
+        <v>1.000030462041346</v>
+      </c>
+      <c r="T36">
+        <v>0.9999836316944227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000163379709217</v>
+      </c>
+      <c r="D37">
+        <v>0.9996099119582463</v>
+      </c>
+      <c r="E37">
+        <v>1.000808048506368</v>
+      </c>
+      <c r="F37">
+        <v>0.9998800995005648</v>
+      </c>
+      <c r="G37">
+        <v>0.9994440820038869</v>
+      </c>
+      <c r="H37">
+        <v>0.9998800995005648</v>
+      </c>
+      <c r="I37">
+        <v>0.9994440820038869</v>
+      </c>
+      <c r="J37">
+        <v>1.000279954001243</v>
+      </c>
+      <c r="K37">
+        <v>0.9998800995005648</v>
+      </c>
+      <c r="L37">
+        <v>1.000279954001243</v>
+      </c>
+      <c r="M37">
+        <v>0.9998620180025648</v>
+      </c>
+      <c r="N37">
+        <v>0.9998620180025648</v>
+      </c>
+      <c r="O37">
+        <v>0.9997779826544586</v>
+      </c>
+      <c r="P37">
+        <v>0.9998680451685648</v>
+      </c>
+      <c r="Q37">
+        <v>0.9998680451685648</v>
+      </c>
+      <c r="R37">
+        <v>0.9998710587515648</v>
+      </c>
+      <c r="S37">
+        <v>0.9998710587515648</v>
+      </c>
+      <c r="T37">
+        <v>1.000030912613254</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.000687059536693</v>
+      </c>
+      <c r="D38">
+        <v>0.9985608486728237</v>
+      </c>
+      <c r="E38">
+        <v>1.00092842242662</v>
+      </c>
+      <c r="F38">
+        <v>1.001382204634804</v>
+      </c>
+      <c r="G38">
+        <v>0.9970173271740872</v>
+      </c>
+      <c r="H38">
+        <v>1.001382204634804</v>
+      </c>
+      <c r="I38">
+        <v>0.9970173271740872</v>
+      </c>
+      <c r="J38">
+        <v>1.00040098656707</v>
+      </c>
+      <c r="K38">
+        <v>1.001382204634804</v>
+      </c>
+      <c r="L38">
+        <v>1.00040098656707</v>
+      </c>
+      <c r="M38">
+        <v>0.9987091568705788</v>
+      </c>
+      <c r="N38">
+        <v>0.9987091568705788</v>
+      </c>
+      <c r="O38">
+        <v>0.9986597208046604</v>
+      </c>
+      <c r="P38">
+        <v>0.9996001727919873</v>
+      </c>
+      <c r="Q38">
+        <v>0.9996001727919873</v>
+      </c>
+      <c r="R38">
+        <v>1.000045680752691</v>
+      </c>
+      <c r="S38">
+        <v>1.000045680752691</v>
+      </c>
+      <c r="T38">
+        <v>0.9998294748353498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.001681591513469</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9965839028561614</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000917002657545</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>1.004434030828622</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9923508841452696</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.004434030828622</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9923508841452696</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000548895758698</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.004434030828622</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000548895758698</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9964498899519838</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9964498899519838</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9964945609200431</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9991112702441965</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9991112702441968</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000441960390303</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000441960390303</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9994193846266275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.007076947894807</v>
+      </c>
+      <c r="D40">
+        <v>0.9851045979984232</v>
+      </c>
+      <c r="E40">
+        <v>1.010830593073015</v>
+      </c>
+      <c r="F40">
+        <v>1.013149818834726</v>
+      </c>
+      <c r="G40">
+        <v>0.969570918288189</v>
+      </c>
+      <c r="H40">
+        <v>1.013149818834726</v>
+      </c>
+      <c r="I40">
+        <v>0.969570918288189</v>
+      </c>
+      <c r="J40">
+        <v>1.004577820500534</v>
+      </c>
+      <c r="K40">
+        <v>1.013149818834726</v>
+      </c>
+      <c r="L40">
+        <v>1.004577820500534</v>
+      </c>
+      <c r="M40">
+        <v>0.9870743693943613</v>
+      </c>
+      <c r="N40">
+        <v>0.9870743693943613</v>
+      </c>
+      <c r="O40">
+        <v>0.9864177789290487</v>
+      </c>
+      <c r="P40">
+        <v>0.995766185874483</v>
+      </c>
+      <c r="Q40">
+        <v>0.995766185874483</v>
+      </c>
+      <c r="R40">
+        <v>1.000112094114544</v>
+      </c>
+      <c r="S40">
+        <v>1.000112094114544</v>
+      </c>
+      <c r="T40">
+        <v>0.9983851160982823</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.001190135629106</v>
+      </c>
+      <c r="D41">
+        <v>0.997250804033447</v>
+      </c>
+      <c r="E41">
+        <v>1.004498238807967</v>
+      </c>
+      <c r="F41">
+        <v>1.000264604342276</v>
+      </c>
+      <c r="G41">
+        <v>0.9956122803165102</v>
+      </c>
+      <c r="H41">
+        <v>1.000264604342276</v>
+      </c>
+      <c r="I41">
+        <v>0.9956122803165102</v>
+      </c>
+      <c r="J41">
+        <v>1.001571009204063</v>
+      </c>
+      <c r="K41">
+        <v>1.000264604342276</v>
+      </c>
+      <c r="L41">
+        <v>1.001571009204063</v>
+      </c>
+      <c r="M41">
+        <v>0.9985916447602865</v>
+      </c>
+      <c r="N41">
+        <v>0.9985916447602865</v>
+      </c>
+      <c r="O41">
+        <v>0.9981446978513401</v>
+      </c>
+      <c r="P41">
+        <v>0.9991492979542832</v>
+      </c>
+      <c r="Q41">
+        <v>0.9991492979542832</v>
+      </c>
+      <c r="R41">
+        <v>0.9994281245512815</v>
+      </c>
+      <c r="S41">
+        <v>0.9994281245512815</v>
+      </c>
+      <c r="T41">
+        <v>1.000064512055562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.03131829210001</v>
+      </c>
+      <c r="D42">
+        <v>0.9316115425699971</v>
+      </c>
+      <c r="E42">
+        <v>1.077148850024538</v>
+      </c>
+      <c r="F42">
+        <v>1.036208182744733</v>
+      </c>
+      <c r="G42">
+        <v>0.8730728981150724</v>
+      </c>
+      <c r="H42">
+        <v>1.036208182744733</v>
+      </c>
+      <c r="I42">
+        <v>0.8730728981150724</v>
+      </c>
+      <c r="J42">
+        <v>1.029305985821925</v>
+      </c>
+      <c r="K42">
+        <v>1.036208182744733</v>
+      </c>
+      <c r="L42">
+        <v>1.029305985821925</v>
+      </c>
+      <c r="M42">
+        <v>0.9511894419684988</v>
+      </c>
+      <c r="N42">
+        <v>0.9511894419684988</v>
+      </c>
+      <c r="O42">
+        <v>0.9446634755023315</v>
+      </c>
+      <c r="P42">
+        <v>0.9795290222272435</v>
+      </c>
+      <c r="Q42">
+        <v>0.9795290222272435</v>
+      </c>
+      <c r="R42">
+        <v>0.9936988123566158</v>
+      </c>
+      <c r="S42">
+        <v>0.9936988123566158</v>
+      </c>
+      <c r="T42">
+        <v>0.9964442918960459</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW30.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,22 +85,28 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -76,22 +115,13 @@
     <t>[2, 0, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.002953963599517</v>
+        <v>1.000334305719453</v>
       </c>
       <c r="D3">
-        <v>0.9911521114201309</v>
+        <v>0.9992432472056693</v>
       </c>
       <c r="E3">
-        <v>1.001805291351322</v>
+        <v>1.001123545842572</v>
       </c>
       <c r="F3">
-        <v>1.002953963599517</v>
+        <v>1.000165948507114</v>
       </c>
       <c r="G3">
-        <v>1.004623781255899</v>
+        <v>0.9987261675062378</v>
       </c>
       <c r="H3">
-        <v>0.9953835615213728</v>
+        <v>1.000165948507114</v>
       </c>
       <c r="I3">
-        <v>1.002140183261535</v>
+        <v>0.9987261675062378</v>
       </c>
       <c r="J3">
-        <v>0.9911521114201309</v>
+        <v>1.000403586341121</v>
       </c>
       <c r="K3">
-        <v>1.002953963599517</v>
+        <v>1.000165948507114</v>
       </c>
       <c r="L3">
-        <v>1.001805291351322</v>
+        <v>1.000403586341121</v>
       </c>
       <c r="M3">
-        <v>0.9964787013857263</v>
+        <v>0.9995648769236795</v>
       </c>
       <c r="N3">
-        <v>0.9964787013857263</v>
+        <v>0.9995648769236795</v>
       </c>
       <c r="O3">
-        <v>0.996113654764275</v>
+        <v>0.9994576670176761</v>
       </c>
       <c r="P3">
-        <v>0.9986371221236566</v>
+        <v>0.9997652341181578</v>
       </c>
       <c r="Q3">
-        <v>0.9986371221236566</v>
+        <v>0.9997652341181578</v>
       </c>
       <c r="R3">
-        <v>0.9997163324926219</v>
+        <v>0.999865412715397</v>
       </c>
       <c r="S3">
-        <v>0.9997163324926219</v>
+        <v>0.999865412715397</v>
       </c>
       <c r="T3">
-        <v>0.9996764820682961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999994668536947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.005659576010293</v>
+        <v>1.007076947894807</v>
       </c>
       <c r="D4">
-        <v>0.982939791358942</v>
+        <v>0.9851045979984232</v>
       </c>
       <c r="E4">
-        <v>1.003499677102932</v>
+        <v>1.010830593073015</v>
       </c>
       <c r="F4">
-        <v>1.005659576010293</v>
+        <v>1.013149818834726</v>
       </c>
       <c r="G4">
-        <v>1.008969197236928</v>
+        <v>0.969570918288189</v>
       </c>
       <c r="H4">
-        <v>0.9910898029337273</v>
+        <v>1.013149818834726</v>
       </c>
       <c r="I4">
-        <v>1.004129387183456</v>
+        <v>0.969570918288189</v>
       </c>
       <c r="J4">
-        <v>0.982939791358942</v>
+        <v>1.004577820500534</v>
       </c>
       <c r="K4">
-        <v>1.005659576010293</v>
+        <v>1.013149818834726</v>
       </c>
       <c r="L4">
-        <v>1.003499677102932</v>
+        <v>1.004577820500534</v>
       </c>
       <c r="M4">
-        <v>0.9932197342309368</v>
+        <v>0.9870743693943613</v>
       </c>
       <c r="N4">
-        <v>0.9932197342309368</v>
+        <v>0.9870743693943613</v>
       </c>
       <c r="O4">
-        <v>0.992509757131867</v>
+        <v>0.9864177789290487</v>
       </c>
       <c r="P4">
-        <v>0.9973663481573887</v>
+        <v>0.995766185874483</v>
       </c>
       <c r="Q4">
-        <v>0.9973663481573888</v>
+        <v>0.995766185874483</v>
       </c>
       <c r="R4">
-        <v>0.9994396551206148</v>
+        <v>1.000112094114544</v>
       </c>
       <c r="S4">
-        <v>0.9994396551206148</v>
+        <v>1.000112094114544</v>
       </c>
       <c r="T4">
-        <v>0.9993812386377131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9983851160982823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.010783065396597</v>
+        <v>1.021238421657058</v>
       </c>
       <c r="D5">
-        <v>0.9673538067228693</v>
+        <v>0.952294083731989</v>
       </c>
       <c r="E5">
-        <v>1.006725085688539</v>
+        <v>1.067039958645531</v>
       </c>
       <c r="F5">
-        <v>1.010783065396597</v>
+        <v>1.01379246704611</v>
       </c>
       <c r="G5">
-        <v>1.017263129467125</v>
+        <v>0.9179196378890481</v>
       </c>
       <c r="H5">
-        <v>0.9829263397017703</v>
+        <v>1.01379246704611</v>
       </c>
       <c r="I5">
-        <v>1.007908174742356</v>
+        <v>0.9179196378890481</v>
       </c>
       <c r="J5">
-        <v>0.9673538067228693</v>
+        <v>1.024302598530257</v>
       </c>
       <c r="K5">
-        <v>1.010783065396597</v>
+        <v>1.01379246704611</v>
       </c>
       <c r="L5">
-        <v>1.006725085688539</v>
+        <v>1.024302598530257</v>
       </c>
       <c r="M5">
-        <v>0.9870394462057041</v>
+        <v>0.9711111182096526</v>
       </c>
       <c r="N5">
-        <v>0.9870394462057041</v>
+        <v>0.9711111182096526</v>
       </c>
       <c r="O5">
-        <v>0.9856684107043928</v>
+        <v>0.9648387733837648</v>
       </c>
       <c r="P5">
-        <v>0.9949539859360019</v>
+        <v>0.9853382344884718</v>
       </c>
       <c r="Q5">
-        <v>0.9949539859360019</v>
+        <v>0.9853382344884718</v>
       </c>
       <c r="R5">
-        <v>0.9989112558011508</v>
+        <v>0.9924517926278813</v>
       </c>
       <c r="S5">
-        <v>0.9989112558011508</v>
+        <v>0.9924517926278813</v>
       </c>
       <c r="T5">
-        <v>0.9988266002865428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9994311945833324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.015768614426227</v>
+        <v>1.070451858556717</v>
       </c>
       <c r="D6">
-        <v>0.9521546287882223</v>
+        <v>0.8402911079178972</v>
       </c>
       <c r="E6">
-        <v>1.009877096495346</v>
+        <v>1.237832947060686</v>
       </c>
       <c r="F6">
-        <v>1.015768614426227</v>
+        <v>1.03470396809494</v>
       </c>
       <c r="G6">
-        <v>1.02537565838375</v>
+        <v>0.7319928959455085</v>
       </c>
       <c r="H6">
-        <v>0.9749595437174576</v>
+        <v>1.03470396809494</v>
       </c>
       <c r="I6">
-        <v>1.011594742309736</v>
+        <v>0.7319928959455085</v>
       </c>
       <c r="J6">
-        <v>0.9521546287882223</v>
+        <v>1.085162910880466</v>
       </c>
       <c r="K6">
-        <v>1.015768614426227</v>
+        <v>1.03470396809494</v>
       </c>
       <c r="L6">
-        <v>1.009877096495346</v>
+        <v>1.085162910880466</v>
       </c>
       <c r="M6">
-        <v>0.9810158626417842</v>
+        <v>0.9085779034129871</v>
       </c>
       <c r="N6">
-        <v>0.9810158626417842</v>
+        <v>0.9085779034129871</v>
       </c>
       <c r="O6">
-        <v>0.9789970896670086</v>
+        <v>0.8858156382479571</v>
       </c>
       <c r="P6">
-        <v>0.9926001132365986</v>
+        <v>0.9506199249736379</v>
       </c>
       <c r="Q6">
-        <v>0.9926001132365986</v>
+        <v>0.9506199249736379</v>
       </c>
       <c r="R6">
-        <v>0.9983922385340058</v>
+        <v>0.9716409357539634</v>
       </c>
       <c r="S6">
-        <v>0.9983922385340058</v>
+        <v>0.9716409357539634</v>
       </c>
       <c r="T6">
-        <v>0.9982883806867898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.000072614742702</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000067856894629</v>
+        <v>1.002339278742156</v>
       </c>
       <c r="D7">
-        <v>0.9994823934187841</v>
+        <v>0.994949249225094</v>
       </c>
       <c r="E7">
-        <v>1.000163850019478</v>
+        <v>1.005120440640803</v>
       </c>
       <c r="F7">
-        <v>1.000067856894629</v>
+        <v>1.003175825993329</v>
       </c>
       <c r="G7">
-        <v>1.000456528876059</v>
+        <v>0.9903457161984702</v>
       </c>
       <c r="H7">
-        <v>0.9996923661889749</v>
+        <v>1.003175825993329</v>
       </c>
       <c r="I7">
-        <v>1.000135865244909</v>
+        <v>0.9903457161984702</v>
       </c>
       <c r="J7">
-        <v>0.9994823934187841</v>
+        <v>1.001995018273805</v>
       </c>
       <c r="K7">
-        <v>1.000067856894629</v>
+        <v>1.003175825993329</v>
       </c>
       <c r="L7">
-        <v>1.000163850019478</v>
+        <v>1.001995018273805</v>
       </c>
       <c r="M7">
-        <v>0.9998231217191311</v>
+        <v>0.9961703672361377</v>
       </c>
       <c r="N7">
-        <v>0.9998231217191311</v>
+        <v>0.9961703672361377</v>
       </c>
       <c r="O7">
-        <v>0.9997795365424125</v>
+        <v>0.9957633278991231</v>
       </c>
       <c r="P7">
-        <v>0.9999047001109638</v>
+        <v>0.9985055201552017</v>
       </c>
       <c r="Q7">
-        <v>0.9999047001109638</v>
+        <v>0.9985055201552017</v>
       </c>
       <c r="R7">
-        <v>0.9999454893068802</v>
+        <v>0.9996730966147336</v>
       </c>
       <c r="S7">
-        <v>0.9999454893068802</v>
+        <v>0.9996730966147336</v>
       </c>
       <c r="T7">
-        <v>0.9999998101071389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9996542548456095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000165948507114</v>
+        <v>1.000163379709217</v>
       </c>
       <c r="D8">
-        <v>0.998726167506238</v>
+        <v>0.9996099119582463</v>
       </c>
       <c r="E8">
-        <v>1.000403586341121</v>
+        <v>1.000808048506368</v>
       </c>
       <c r="F8">
-        <v>1.000165948507114</v>
+        <v>0.9998800995005648</v>
       </c>
       <c r="G8">
-        <v>1.001123545842572</v>
+        <v>0.9994440820038869</v>
       </c>
       <c r="H8">
-        <v>0.999243247205669</v>
+        <v>0.9998800995005648</v>
       </c>
       <c r="I8">
-        <v>1.000334305719453</v>
+        <v>0.9994440820038869</v>
       </c>
       <c r="J8">
-        <v>0.998726167506238</v>
+        <v>1.000279954001243</v>
       </c>
       <c r="K8">
-        <v>1.000165948507114</v>
+        <v>0.9998800995005648</v>
       </c>
       <c r="L8">
-        <v>1.000403586341121</v>
+        <v>1.000279954001243</v>
       </c>
       <c r="M8">
-        <v>0.9995648769236793</v>
+        <v>0.9998620180025648</v>
       </c>
       <c r="N8">
-        <v>0.9995648769236793</v>
+        <v>0.9998620180025648</v>
       </c>
       <c r="O8">
-        <v>0.9994576670176759</v>
+        <v>0.9997779826544586</v>
       </c>
       <c r="P8">
-        <v>0.9997652341181578</v>
+        <v>0.9998680451685648</v>
       </c>
       <c r="Q8">
-        <v>0.9997652341181578</v>
+        <v>0.9998680451685648</v>
       </c>
       <c r="R8">
-        <v>0.999865412715397</v>
+        <v>0.9998710587515648</v>
       </c>
       <c r="S8">
-        <v>0.999865412715397</v>
+        <v>0.9998710587515648</v>
       </c>
       <c r="T8">
-        <v>0.9999994668536946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.000030912613254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000224624251616</v>
+        <v>1.004129387183456</v>
       </c>
       <c r="D9">
-        <v>0.9982897567018026</v>
+        <v>0.9910898029337273</v>
       </c>
       <c r="E9">
-        <v>1.000540279754059</v>
+        <v>1.008969197236928</v>
       </c>
       <c r="F9">
-        <v>1.000224624251616</v>
+        <v>1.005659576010293</v>
       </c>
       <c r="G9">
-        <v>1.001500742652026</v>
+        <v>0.982939791358942</v>
       </c>
       <c r="H9">
-        <v>0.9989863861518991</v>
+        <v>1.005659576010293</v>
       </c>
       <c r="I9">
-        <v>1.000448253816612</v>
+        <v>0.982939791358942</v>
       </c>
       <c r="J9">
-        <v>0.9982897567018026</v>
+        <v>1.003499677102932</v>
       </c>
       <c r="K9">
-        <v>1.000224624251616</v>
+        <v>1.005659576010293</v>
       </c>
       <c r="L9">
-        <v>1.000540279754059</v>
+        <v>1.003499677102932</v>
       </c>
       <c r="M9">
-        <v>0.9994150182279309</v>
+        <v>0.9932197342309368</v>
       </c>
       <c r="N9">
-        <v>0.9994150182279309</v>
+        <v>0.9932197342309368</v>
       </c>
       <c r="O9">
-        <v>0.9992721408692535</v>
+        <v>0.992509757131867</v>
       </c>
       <c r="P9">
-        <v>0.9996848869024927</v>
+        <v>0.9973663481573887</v>
       </c>
       <c r="Q9">
-        <v>0.9996848869024926</v>
+        <v>0.9973663481573888</v>
       </c>
       <c r="R9">
-        <v>0.9998198212397735</v>
+        <v>0.9994396551206148</v>
       </c>
       <c r="S9">
-        <v>0.9998198212397735</v>
+        <v>0.9994396551206148</v>
       </c>
       <c r="T9">
-        <v>0.9999983405546691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9993812386377131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000498251742724</v>
+        <v>1.071453874423856</v>
       </c>
       <c r="D10">
-        <v>0.9962411451694954</v>
+        <v>0.8379314328250742</v>
       </c>
       <c r="E10">
-        <v>1.001185405054663</v>
+        <v>1.242076623030659</v>
       </c>
       <c r="F10">
-        <v>1.000498251742724</v>
+        <v>1.034607484222022</v>
       </c>
       <c r="G10">
-        <v>1.003294190872383</v>
+        <v>0.7284270828488359</v>
       </c>
       <c r="H10">
-        <v>0.9977723547549905</v>
+        <v>1.034607484222022</v>
       </c>
       <c r="I10">
-        <v>1.00098507171936</v>
+        <v>0.7284270828488359</v>
       </c>
       <c r="J10">
-        <v>0.9962411451694954</v>
+        <v>1.086616985637612</v>
       </c>
       <c r="K10">
-        <v>1.000498251742724</v>
+        <v>1.034607484222022</v>
       </c>
       <c r="L10">
-        <v>1.001185405054663</v>
+        <v>1.086616985637612</v>
       </c>
       <c r="M10">
-        <v>0.9987132751120791</v>
+        <v>0.9075220342432241</v>
       </c>
       <c r="N10">
-        <v>0.9987132751120791</v>
+        <v>0.9075220342432241</v>
       </c>
       <c r="O10">
-        <v>0.9983996349930496</v>
+        <v>0.8843251671038409</v>
       </c>
       <c r="P10">
-        <v>0.9993082673222942</v>
+        <v>0.9498838509028236</v>
       </c>
       <c r="Q10">
-        <v>0.9993082673222942</v>
+        <v>0.9498838509028236</v>
       </c>
       <c r="R10">
-        <v>0.9996057634274016</v>
+        <v>0.9710647592326233</v>
       </c>
       <c r="S10">
-        <v>0.9996057634274016</v>
+        <v>0.9710647592326233</v>
       </c>
       <c r="T10">
-        <v>0.9999960698856026</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.00018558049801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000817475326168</v>
+        <v>1.012473523287781</v>
       </c>
       <c r="D11">
-        <v>0.9939291326162398</v>
+        <v>0.9730231375931715</v>
       </c>
       <c r="E11">
-        <v>1.00190615952746</v>
+        <v>1.027191900741039</v>
       </c>
       <c r="F11">
-        <v>1.000817475326168</v>
+        <v>1.017223119171311</v>
       </c>
       <c r="G11">
-        <v>1.005287463090393</v>
+        <v>0.948555977787454</v>
       </c>
       <c r="H11">
-        <v>0.9964107503156265</v>
+        <v>1.017223119171311</v>
       </c>
       <c r="I11">
-        <v>1.001588762073739</v>
+        <v>0.948555977787454</v>
       </c>
       <c r="J11">
-        <v>0.9939291326162398</v>
+        <v>1.010518952077633</v>
       </c>
       <c r="K11">
-        <v>1.000817475326168</v>
+        <v>1.017223119171311</v>
       </c>
       <c r="L11">
-        <v>1.00190615952746</v>
+        <v>1.010518952077633</v>
       </c>
       <c r="M11">
-        <v>0.9979176460718497</v>
+        <v>0.9795374649325437</v>
       </c>
       <c r="N11">
-        <v>0.9979176460718497</v>
+        <v>0.9795374649325437</v>
       </c>
       <c r="O11">
-        <v>0.997415347486442</v>
+        <v>0.9773660224860863</v>
       </c>
       <c r="P11">
-        <v>0.9988842558232891</v>
+        <v>0.9920993496787996</v>
       </c>
       <c r="Q11">
-        <v>0.9988842558232891</v>
+        <v>0.9920993496787996</v>
       </c>
       <c r="R11">
-        <v>0.9993675606990089</v>
+        <v>0.9983802920519276</v>
       </c>
       <c r="S11">
-        <v>0.9993675606990089</v>
+        <v>0.9983802920519276</v>
       </c>
       <c r="T11">
-        <v>0.999989957158271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9981644351097317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.005447565159535</v>
+        <v>1.021625614842104</v>
       </c>
       <c r="D12">
-        <v>1.047002770488813</v>
+        <v>0.9509187843578933</v>
       </c>
       <c r="E12">
-        <v>0.9787530665002225</v>
+        <v>1.073588446842105</v>
       </c>
       <c r="F12">
-        <v>1.005447565159535</v>
+        <v>1.010243945968422</v>
       </c>
       <c r="G12">
-        <v>0.9385568681491758</v>
+        <v>0.9178979247894722</v>
       </c>
       <c r="H12">
-        <v>1.031861426470666</v>
+        <v>1.010243945968422</v>
       </c>
       <c r="I12">
-        <v>0.9865357185113219</v>
+        <v>0.9178979247894722</v>
       </c>
       <c r="J12">
-        <v>1.047002770488813</v>
+        <v>1.026309429252629</v>
       </c>
       <c r="K12">
-        <v>1.005447565159535</v>
+        <v>1.010243945968422</v>
       </c>
       <c r="L12">
-        <v>0.9787530665002225</v>
+        <v>1.026309429252629</v>
       </c>
       <c r="M12">
-        <v>1.012877918494518</v>
+        <v>0.9721036770210505</v>
       </c>
       <c r="N12">
-        <v>1.012877918494518</v>
+        <v>0.9721036770210505</v>
       </c>
       <c r="O12">
-        <v>1.019205754486567</v>
+        <v>0.9650420461333314</v>
       </c>
       <c r="P12">
-        <v>1.010401134049524</v>
+        <v>0.9848171000035076</v>
       </c>
       <c r="Q12">
-        <v>1.010401134049524</v>
+        <v>0.9848171000035076</v>
       </c>
       <c r="R12">
-        <v>1.009162741827026</v>
+        <v>0.9911738114947362</v>
       </c>
       <c r="S12">
-        <v>1.009162741827026</v>
+        <v>0.9911738114947362</v>
       </c>
       <c r="T12">
-        <v>0.9980262358799559</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.000097357675438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9874859973358197</v>
+        <v>0.9855078523546629</v>
       </c>
       <c r="D13">
-        <v>1.02030236908294</v>
+        <v>1.032066248264003</v>
       </c>
       <c r="E13">
-        <v>0.998986093031317</v>
+        <v>0.9592000193436624</v>
       </c>
       <c r="F13">
-        <v>0.9874859973358197</v>
+        <v>0.9871235410207316</v>
       </c>
       <c r="G13">
-        <v>0.9991227717885854</v>
+        <v>1.057396787687628</v>
       </c>
       <c r="H13">
-        <v>1.00870860637718</v>
+        <v>0.9871235410207316</v>
       </c>
       <c r="I13">
-        <v>0.9956332946746439</v>
+        <v>1.057396787687628</v>
       </c>
       <c r="J13">
-        <v>1.02030236908294</v>
+        <v>0.9848429613229041</v>
       </c>
       <c r="K13">
-        <v>0.9874859973358197</v>
+        <v>0.9871235410207316</v>
       </c>
       <c r="L13">
-        <v>0.998986093031317</v>
+        <v>0.9848429613229041</v>
       </c>
       <c r="M13">
-        <v>1.009644231057128</v>
+        <v>1.021119874505266</v>
       </c>
       <c r="N13">
-        <v>1.009644231057128</v>
+        <v>1.021119874505266</v>
       </c>
       <c r="O13">
-        <v>1.009332356163812</v>
+        <v>1.024768665758178</v>
       </c>
       <c r="P13">
-        <v>1.002258153150025</v>
+        <v>1.009787763343754</v>
       </c>
       <c r="Q13">
-        <v>1.002258153150025</v>
+        <v>1.009787763343754</v>
       </c>
       <c r="R13">
-        <v>0.998565114196474</v>
+        <v>1.004121707762999</v>
       </c>
       <c r="S13">
-        <v>0.998565114196474</v>
+        <v>1.004121707762999</v>
       </c>
       <c r="T13">
-        <v>1.001706522048414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.001022901665599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9652095947156103</v>
+        <v>1.123343199999999</v>
       </c>
       <c r="D14">
-        <v>1.167955588361192</v>
+        <v>0.7200443600000007</v>
       </c>
       <c r="E14">
-        <v>0.9538513414715889</v>
+        <v>1.419963300000002</v>
       </c>
       <c r="F14">
-        <v>0.9652095947156103</v>
+        <v>1.0582291</v>
       </c>
       <c r="G14">
-        <v>0.8739474678005341</v>
+        <v>0.531786490000001</v>
       </c>
       <c r="H14">
-        <v>1.095466582991626</v>
+        <v>1.0582291</v>
       </c>
       <c r="I14">
-        <v>0.9571627823628178</v>
+        <v>0.531786490000001</v>
       </c>
       <c r="J14">
-        <v>1.167955588361192</v>
+        <v>1.1501391</v>
       </c>
       <c r="K14">
-        <v>0.9652095947156103</v>
+        <v>1.0582291</v>
       </c>
       <c r="L14">
-        <v>0.9538513414715889</v>
+        <v>1.1501391</v>
       </c>
       <c r="M14">
-        <v>1.06090346491639</v>
+        <v>0.8409627950000005</v>
       </c>
       <c r="N14">
-        <v>1.06090346491639</v>
+        <v>0.8409627950000005</v>
       </c>
       <c r="O14">
-        <v>1.072424504274802</v>
+        <v>0.8006566500000005</v>
       </c>
       <c r="P14">
-        <v>1.029005508182797</v>
+        <v>0.9133848966666669</v>
       </c>
       <c r="Q14">
-        <v>1.029005508182797</v>
+        <v>0.9133848966666669</v>
       </c>
       <c r="R14">
-        <v>1.013056529816001</v>
+        <v>0.9495959475000002</v>
       </c>
       <c r="S14">
-        <v>1.013056529816001</v>
+        <v>0.9495959475000002</v>
       </c>
       <c r="T14">
-        <v>1.002265559617228</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.000584258333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9849473103608972</v>
+        <v>0.9980878900000001</v>
       </c>
       <c r="D15">
-        <v>1.048939658473913</v>
+        <v>1.0042646</v>
       </c>
       <c r="E15">
-        <v>0.9895247385780078</v>
+        <v>1.0045745</v>
       </c>
       <c r="F15">
-        <v>0.9849473103608972</v>
+        <v>0.9875187400000001</v>
       </c>
       <c r="G15">
-        <v>0.9739367055147482</v>
+        <v>1.0091796</v>
       </c>
       <c r="H15">
-        <v>1.025298299667422</v>
+        <v>0.9875187400000001</v>
       </c>
       <c r="I15">
-        <v>0.9881902067147119</v>
+        <v>1.0091796</v>
       </c>
       <c r="J15">
-        <v>1.048939658473913</v>
+        <v>1.0024373</v>
       </c>
       <c r="K15">
-        <v>0.9849473103608972</v>
+        <v>0.9875187400000001</v>
       </c>
       <c r="L15">
-        <v>0.9895247385780078</v>
+        <v>1.0024373</v>
       </c>
       <c r="M15">
-        <v>1.01923219852596</v>
+        <v>1.00580845</v>
       </c>
       <c r="N15">
-        <v>1.01923219852596</v>
+        <v>1.00580845</v>
       </c>
       <c r="O15">
-        <v>1.021254232239781</v>
+        <v>1.005293833333333</v>
       </c>
       <c r="P15">
-        <v>1.007803902470939</v>
+        <v>0.99971188</v>
       </c>
       <c r="Q15">
-        <v>1.007803902470939</v>
+        <v>0.99971188</v>
       </c>
       <c r="R15">
-        <v>1.002089754443429</v>
+        <v>0.996663595</v>
       </c>
       <c r="S15">
-        <v>1.002089754443429</v>
+        <v>0.996663595</v>
       </c>
       <c r="T15">
-        <v>1.001806153218283</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.001010438333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000120550367829</v>
+        <v>1.0550102</v>
       </c>
       <c r="D16">
-        <v>0.9999096907033812</v>
+        <v>0.88627042</v>
       </c>
       <c r="E16">
-        <v>0.9999710567263461</v>
+        <v>1.055856</v>
       </c>
       <c r="F16">
-        <v>1.000120550367829</v>
+        <v>1.1248129</v>
       </c>
       <c r="G16">
-        <v>0.9999092924769289</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H16">
-        <v>0.9999765574580197</v>
+        <v>1.1248129</v>
       </c>
       <c r="I16">
-        <v>1.000014642434032</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="J16">
-        <v>0.9999096907033812</v>
+        <v>1.0262848</v>
       </c>
       <c r="K16">
-        <v>1.000120550367829</v>
+        <v>1.1248129</v>
       </c>
       <c r="L16">
-        <v>0.9999710567263461</v>
+        <v>1.0262848</v>
       </c>
       <c r="M16">
-        <v>0.9999403737148637</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N16">
-        <v>0.9999403737148637</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O16">
-        <v>0.9999524349625823</v>
+        <v>0.88964224</v>
       </c>
       <c r="P16">
-        <v>1.000000432599186</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q16">
-        <v>1.000000432599186</v>
+        <v>0.9691564</v>
       </c>
       <c r="R16">
-        <v>1.000030462041346</v>
+        <v>1.008070525</v>
       </c>
       <c r="S16">
-        <v>1.000030462041346</v>
+        <v>1.008070525</v>
       </c>
       <c r="T16">
-        <v>0.9999836316944227</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9998800995005648</v>
+        <v>0.9348425</v>
       </c>
       <c r="D17">
-        <v>0.9994440820038869</v>
+        <v>1.1436098</v>
       </c>
       <c r="E17">
-        <v>1.000279954001243</v>
+        <v>0.83191888</v>
       </c>
       <c r="F17">
-        <v>0.9998800995005648</v>
+        <v>0.92778346</v>
       </c>
       <c r="G17">
-        <v>1.000808048506368</v>
+        <v>1.2612583</v>
       </c>
       <c r="H17">
-        <v>0.9996099119582462</v>
+        <v>0.92778346</v>
       </c>
       <c r="I17">
-        <v>1.000163379709218</v>
+        <v>1.2612583</v>
       </c>
       <c r="J17">
-        <v>0.9994440820038869</v>
+        <v>0.9377474500000001</v>
       </c>
       <c r="K17">
-        <v>0.9998800995005648</v>
+        <v>0.92778346</v>
       </c>
       <c r="L17">
-        <v>1.000279954001243</v>
+        <v>0.9377474500000001</v>
       </c>
       <c r="M17">
-        <v>0.9998620180025648</v>
+        <v>1.099502875</v>
       </c>
       <c r="N17">
-        <v>0.9998620180025648</v>
+        <v>1.099502875</v>
       </c>
       <c r="O17">
-        <v>0.9997779826544586</v>
+        <v>1.114205183333333</v>
       </c>
       <c r="P17">
-        <v>0.9998680451685648</v>
+        <v>1.04226307</v>
       </c>
       <c r="Q17">
-        <v>0.9998680451685648</v>
+        <v>1.04226307</v>
       </c>
       <c r="R17">
-        <v>0.9998710587515648</v>
+        <v>1.0136431675</v>
       </c>
       <c r="S17">
-        <v>0.9998710587515648</v>
+        <v>1.0136431675</v>
       </c>
       <c r="T17">
-        <v>1.000030912613254</v>
+        <v>1.006193398333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001382204634804</v>
+        <v>1.048851425616438</v>
       </c>
       <c r="D18">
-        <v>0.9970173271740871</v>
+        <v>0.8949005994520548</v>
       </c>
       <c r="E18">
-        <v>1.00040098656707</v>
+        <v>1.102819604109589</v>
       </c>
       <c r="F18">
-        <v>1.001382204634804</v>
+        <v>1.069307399726027</v>
       </c>
       <c r="G18">
-        <v>1.00092842242662</v>
+        <v>0.7972666515068493</v>
       </c>
       <c r="H18">
-        <v>0.9985608486728237</v>
+        <v>1.069307399726027</v>
       </c>
       <c r="I18">
-        <v>1.000687059536693</v>
+        <v>0.7972666515068493</v>
       </c>
       <c r="J18">
-        <v>0.9970173271740871</v>
+        <v>1.040433319178082</v>
       </c>
       <c r="K18">
-        <v>1.001382204634804</v>
+        <v>1.069307399726027</v>
       </c>
       <c r="L18">
-        <v>1.00040098656707</v>
+        <v>1.040433319178082</v>
       </c>
       <c r="M18">
-        <v>0.9987091568705788</v>
+        <v>0.9188499853424656</v>
       </c>
       <c r="N18">
-        <v>0.9987091568705788</v>
+        <v>0.9188499853424656</v>
       </c>
       <c r="O18">
-        <v>0.9986597208046604</v>
+        <v>0.9108668567123287</v>
       </c>
       <c r="P18">
-        <v>0.9996001727919873</v>
+        <v>0.9690024568036527</v>
       </c>
       <c r="Q18">
-        <v>0.9996001727919873</v>
+        <v>0.9690024568036527</v>
       </c>
       <c r="R18">
-        <v>1.000045680752691</v>
+        <v>0.9940786925342462</v>
       </c>
       <c r="S18">
-        <v>1.000045680752691</v>
+        <v>0.9940786925342462</v>
       </c>
       <c r="T18">
-        <v>0.9998294748353498</v>
+        <v>0.9922631665981734</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004434030828622</v>
+        <v>1.004377992631579</v>
       </c>
       <c r="D19">
-        <v>0.9923508841452696</v>
+        <v>0.9909270273684211</v>
       </c>
       <c r="E19">
-        <v>1.000548895758698</v>
+        <v>1.007763908947368</v>
       </c>
       <c r="F19">
-        <v>1.004434030828622</v>
+        <v>1.006464006315789</v>
       </c>
       <c r="G19">
-        <v>1.000917002657545</v>
+        <v>0.9811851247368422</v>
       </c>
       <c r="H19">
-        <v>0.9965839028561614</v>
+        <v>1.006464006315789</v>
       </c>
       <c r="I19">
-        <v>1.001681591513469</v>
+        <v>0.9811851247368422</v>
       </c>
       <c r="J19">
-        <v>0.9923508841452696</v>
+        <v>1.003519541052632</v>
       </c>
       <c r="K19">
-        <v>1.004434030828622</v>
+        <v>1.006464006315789</v>
       </c>
       <c r="L19">
-        <v>1.000548895758698</v>
+        <v>1.003519541052632</v>
       </c>
       <c r="M19">
-        <v>0.9964498899519838</v>
+        <v>0.9923523328947369</v>
       </c>
       <c r="N19">
-        <v>0.9964498899519838</v>
+        <v>0.9923523328947369</v>
       </c>
       <c r="O19">
-        <v>0.9964945609200431</v>
+        <v>0.9918772310526317</v>
       </c>
       <c r="P19">
-        <v>0.9991112702441965</v>
+        <v>0.9970562240350876</v>
       </c>
       <c r="Q19">
-        <v>0.9991112702441968</v>
+        <v>0.9970562240350876</v>
       </c>
       <c r="R19">
-        <v>1.000441960390303</v>
+        <v>0.9994081696052631</v>
       </c>
       <c r="S19">
-        <v>1.000441960390303</v>
+        <v>0.9994081696052631</v>
       </c>
       <c r="T19">
-        <v>0.9994193846266275</v>
+        <v>0.9990396001754386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.019575398947368</v>
+      </c>
+      <c r="D20">
+        <v>0.9539703252631577</v>
+      </c>
+      <c r="E20">
+        <v>1.082744658947368</v>
+      </c>
+      <c r="F20">
+        <v>0.9980270442105262</v>
+      </c>
+      <c r="G20">
+        <v>0.9302307978947369</v>
+      </c>
+      <c r="H20">
+        <v>0.9980270442105262</v>
+      </c>
+      <c r="I20">
+        <v>0.9302307978947369</v>
+      </c>
+      <c r="J20">
+        <v>1.028443041052632</v>
+      </c>
+      <c r="K20">
+        <v>0.9980270442105262</v>
+      </c>
+      <c r="L20">
+        <v>1.028443041052632</v>
+      </c>
+      <c r="M20">
+        <v>0.9793369194736843</v>
+      </c>
+      <c r="N20">
+        <v>0.9793369194736843</v>
+      </c>
+      <c r="O20">
+        <v>0.9708813880701754</v>
+      </c>
+      <c r="P20">
+        <v>0.9855669610526316</v>
+      </c>
+      <c r="Q20">
+        <v>0.9855669610526316</v>
+      </c>
+      <c r="R20">
+        <v>0.9886819818421053</v>
+      </c>
+      <c r="S20">
+        <v>0.9886819818421053</v>
+      </c>
+      <c r="T20">
+        <v>1.002165211052632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9571627823628177</v>
+      </c>
+      <c r="D21">
+        <v>1.095466582991626</v>
+      </c>
+      <c r="E21">
+        <v>0.8739474678005341</v>
+      </c>
+      <c r="F21">
+        <v>0.9652095947156103</v>
+      </c>
+      <c r="G21">
+        <v>1.167955588361192</v>
+      </c>
+      <c r="H21">
+        <v>0.9652095947156103</v>
+      </c>
+      <c r="I21">
+        <v>1.167955588361192</v>
+      </c>
+      <c r="J21">
+        <v>0.9538513414715889</v>
+      </c>
+      <c r="K21">
+        <v>0.9652095947156103</v>
+      </c>
+      <c r="L21">
+        <v>0.9538513414715889</v>
+      </c>
+      <c r="M21">
+        <v>1.06090346491639</v>
+      </c>
+      <c r="N21">
+        <v>1.06090346491639</v>
+      </c>
+      <c r="O21">
+        <v>1.072424504274802</v>
+      </c>
+      <c r="P21">
+        <v>1.029005508182797</v>
+      </c>
+      <c r="Q21">
+        <v>1.029005508182797</v>
+      </c>
+      <c r="R21">
+        <v>1.013056529816001</v>
+      </c>
+      <c r="S21">
+        <v>1.013056529816001</v>
+      </c>
+      <c r="T21">
+        <v>1.002265559617228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9881902067147117</v>
+      </c>
+      <c r="D22">
+        <v>1.025298299667422</v>
+      </c>
+      <c r="E22">
+        <v>0.9739367055147482</v>
+      </c>
+      <c r="F22">
+        <v>0.9849473103608972</v>
+      </c>
+      <c r="G22">
+        <v>1.048939658473913</v>
+      </c>
+      <c r="H22">
+        <v>0.9849473103608972</v>
+      </c>
+      <c r="I22">
+        <v>1.048939658473913</v>
+      </c>
+      <c r="J22">
+        <v>0.9895247385780078</v>
+      </c>
+      <c r="K22">
+        <v>0.9849473103608972</v>
+      </c>
+      <c r="L22">
+        <v>0.9895247385780078</v>
+      </c>
+      <c r="M22">
+        <v>1.01923219852596</v>
+      </c>
+      <c r="N22">
+        <v>1.01923219852596</v>
+      </c>
+      <c r="O22">
+        <v>1.021254232239781</v>
+      </c>
+      <c r="P22">
+        <v>1.007803902470939</v>
+      </c>
+      <c r="Q22">
+        <v>1.007803902470939</v>
+      </c>
+      <c r="R22">
+        <v>1.002089754443429</v>
+      </c>
+      <c r="S22">
+        <v>1.002089754443429</v>
+      </c>
+      <c r="T22">
+        <v>1.001806153218283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9865357185113219</v>
+      </c>
+      <c r="D23">
+        <v>1.031861426470666</v>
+      </c>
+      <c r="E23">
+        <v>0.9385568681491758</v>
+      </c>
+      <c r="F23">
+        <v>1.005447565159535</v>
+      </c>
+      <c r="G23">
+        <v>1.047002770488813</v>
+      </c>
+      <c r="H23">
+        <v>1.005447565159535</v>
+      </c>
+      <c r="I23">
+        <v>1.047002770488813</v>
+      </c>
+      <c r="J23">
+        <v>0.9787530665002225</v>
+      </c>
+      <c r="K23">
+        <v>1.005447565159535</v>
+      </c>
+      <c r="L23">
+        <v>0.9787530665002225</v>
+      </c>
+      <c r="M23">
+        <v>1.012877918494518</v>
+      </c>
+      <c r="N23">
+        <v>1.012877918494518</v>
+      </c>
+      <c r="O23">
+        <v>1.019205754486567</v>
+      </c>
+      <c r="P23">
+        <v>1.010401134049524</v>
+      </c>
+      <c r="Q23">
+        <v>1.010401134049524</v>
+      </c>
+      <c r="R23">
+        <v>1.009162741827026</v>
+      </c>
+      <c r="S23">
+        <v>1.009162741827026</v>
+      </c>
+      <c r="T23">
+        <v>0.9980262358799559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9956332946746439</v>
+      </c>
+      <c r="D24">
+        <v>1.00870860637718</v>
+      </c>
+      <c r="E24">
+        <v>0.9991227717885854</v>
+      </c>
+      <c r="F24">
+        <v>0.9874859973358197</v>
+      </c>
+      <c r="G24">
+        <v>1.02030236908294</v>
+      </c>
+      <c r="H24">
+        <v>0.9874859973358197</v>
+      </c>
+      <c r="I24">
+        <v>1.02030236908294</v>
+      </c>
+      <c r="J24">
+        <v>0.998986093031317</v>
+      </c>
+      <c r="K24">
+        <v>0.9874859973358197</v>
+      </c>
+      <c r="L24">
+        <v>0.998986093031317</v>
+      </c>
+      <c r="M24">
+        <v>1.009644231057128</v>
+      </c>
+      <c r="N24">
+        <v>1.009644231057128</v>
+      </c>
+      <c r="O24">
+        <v>1.009332356163812</v>
+      </c>
+      <c r="P24">
+        <v>1.002258153150025</v>
+      </c>
+      <c r="Q24">
+        <v>1.002258153150025</v>
+      </c>
+      <c r="R24">
+        <v>0.998565114196474</v>
+      </c>
+      <c r="S24">
+        <v>0.998565114196474</v>
+      </c>
+      <c r="T24">
+        <v>1.001706522048414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.006954929020247</v>
+      </c>
+      <c r="D25">
+        <v>0.9865583441904687</v>
+      </c>
+      <c r="E25">
+        <v>0.9980757240538051</v>
+      </c>
+      <c r="F25">
+        <v>1.021874830372084</v>
+      </c>
+      <c r="G25">
+        <v>0.9666112051414429</v>
+      </c>
+      <c r="H25">
+        <v>1.021874830372084</v>
+      </c>
+      <c r="I25">
+        <v>0.9666112051414429</v>
+      </c>
+      <c r="J25">
+        <v>1.00081505871106</v>
+      </c>
+      <c r="K25">
+        <v>1.021874830372084</v>
+      </c>
+      <c r="L25">
+        <v>1.00081505871106</v>
+      </c>
+      <c r="M25">
+        <v>0.9837131319262513</v>
+      </c>
+      <c r="N25">
+        <v>0.9837131319262513</v>
+      </c>
+      <c r="O25">
+        <v>0.9846615360143237</v>
+      </c>
+      <c r="P25">
+        <v>0.9964336980748624</v>
+      </c>
+      <c r="Q25">
+        <v>0.9964336980748622</v>
+      </c>
+      <c r="R25">
+        <v>1.002793981149168</v>
+      </c>
+      <c r="S25">
+        <v>1.002793981149168</v>
+      </c>
+      <c r="T25">
+        <v>0.9968150152481846</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.001267321479691</v>
+      </c>
+      <c r="D26">
+        <v>0.9964013226850438</v>
+      </c>
+      <c r="E26">
+        <v>1.012117754001024</v>
+      </c>
+      <c r="F26">
+        <v>0.9949622459466204</v>
+      </c>
+      <c r="G26">
+        <v>0.9973278678896023</v>
+      </c>
+      <c r="H26">
+        <v>0.9949622459466204</v>
+      </c>
+      <c r="I26">
+        <v>0.9973278678896023</v>
+      </c>
+      <c r="J26">
+        <v>1.003862003837466</v>
+      </c>
+      <c r="K26">
+        <v>0.9949622459466204</v>
+      </c>
+      <c r="L26">
+        <v>1.003862003837466</v>
+      </c>
+      <c r="M26">
+        <v>1.000594935863534</v>
+      </c>
+      <c r="N26">
+        <v>1.000594935863534</v>
+      </c>
+      <c r="O26">
+        <v>0.9991970648040374</v>
+      </c>
+      <c r="P26">
+        <v>0.9987173725578963</v>
+      </c>
+      <c r="Q26">
+        <v>0.9987173725578963</v>
+      </c>
+      <c r="R26">
+        <v>0.9977785909050774</v>
+      </c>
+      <c r="S26">
+        <v>0.9977785909050774</v>
+      </c>
+      <c r="T26">
+        <v>1.000989752639908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.007786720856166</v>
+      </c>
+      <c r="D27">
+        <v>0.9831496559565884</v>
+      </c>
+      <c r="E27">
+        <v>1.018543978566573</v>
+      </c>
+      <c r="F27">
+        <v>1.009109217522926</v>
+      </c>
+      <c r="G27">
+        <v>0.9681563671136875</v>
+      </c>
+      <c r="H27">
+        <v>1.009109217522926</v>
+      </c>
+      <c r="I27">
+        <v>0.9681563671136875</v>
+      </c>
+      <c r="J27">
+        <v>1.007242496547776</v>
+      </c>
+      <c r="K27">
+        <v>1.009109217522926</v>
+      </c>
+      <c r="L27">
+        <v>1.007242496547776</v>
+      </c>
+      <c r="M27">
+        <v>0.9876994318307315</v>
+      </c>
+      <c r="N27">
+        <v>0.9876994318307315</v>
+      </c>
+      <c r="O27">
+        <v>0.9861828398726837</v>
+      </c>
+      <c r="P27">
+        <v>0.994836027061463</v>
+      </c>
+      <c r="Q27">
+        <v>0.994836027061463</v>
+      </c>
+      <c r="R27">
+        <v>0.9984043246768286</v>
+      </c>
+      <c r="S27">
+        <v>0.9984043246768286</v>
+      </c>
+      <c r="T27">
+        <v>0.9989980727606195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9983695786395739</v>
+      </c>
+      <c r="D28">
+        <v>1.00433358266725</v>
+      </c>
+      <c r="E28">
+        <v>0.9860147324819</v>
+      </c>
+      <c r="F28">
+        <v>1.005877074472088</v>
+      </c>
+      <c r="G28">
+        <v>1.004050974261764</v>
+      </c>
+      <c r="H28">
+        <v>1.005877074472088</v>
+      </c>
+      <c r="I28">
+        <v>1.004050974261764</v>
+      </c>
+      <c r="J28">
+        <v>0.9952800729516558</v>
+      </c>
+      <c r="K28">
+        <v>1.005877074472088</v>
+      </c>
+      <c r="L28">
+        <v>0.9952800729516558</v>
+      </c>
+      <c r="M28">
+        <v>0.9996655236067101</v>
+      </c>
+      <c r="N28">
+        <v>0.9996655236067101</v>
+      </c>
+      <c r="O28">
+        <v>1.001221543293557</v>
+      </c>
+      <c r="P28">
+        <v>1.001736040561836</v>
+      </c>
+      <c r="Q28">
+        <v>1.001736040561836</v>
+      </c>
+      <c r="R28">
+        <v>1.002771299039399</v>
+      </c>
+      <c r="S28">
+        <v>1.002771299039399</v>
+      </c>
+      <c r="T28">
+        <v>0.9989876692457053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9753401703046108</v>
+      </c>
+      <c r="D29">
+        <v>1.056107497161466</v>
+      </c>
+      <c r="E29">
+        <v>0.9175239219340459</v>
+      </c>
+      <c r="F29">
+        <v>0.9862551773862154</v>
+      </c>
+      <c r="G29">
+        <v>1.093694796674831</v>
+      </c>
+      <c r="H29">
+        <v>0.9862551773862154</v>
+      </c>
+      <c r="I29">
+        <v>1.093694796674831</v>
+      </c>
+      <c r="J29">
+        <v>0.9708483937544705</v>
+      </c>
+      <c r="K29">
+        <v>0.9862551773862154</v>
+      </c>
+      <c r="L29">
+        <v>0.9708483937544705</v>
+      </c>
+      <c r="M29">
+        <v>1.032271595214651</v>
+      </c>
+      <c r="N29">
+        <v>1.032271595214651</v>
+      </c>
+      <c r="O29">
+        <v>1.040216895863589</v>
+      </c>
+      <c r="P29">
+        <v>1.016932789271839</v>
+      </c>
+      <c r="Q29">
+        <v>1.016932789271839</v>
+      </c>
+      <c r="R29">
+        <v>1.009263386300433</v>
+      </c>
+      <c r="S29">
+        <v>1.009263386300433</v>
+      </c>
+      <c r="T29">
+        <v>0.9999616595359399</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/O554F-HW30.xlsx
+++ b/JupyterNotebooks/AvgHW/O554F-HW30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.007076947894807</v>
+        <v>1.018039178012008</v>
       </c>
       <c r="D4">
-        <v>0.9851045979984232</v>
+        <v>0.9594693477392535</v>
       </c>
       <c r="E4">
-        <v>1.010830593073015</v>
+        <v>1.057098421144036</v>
       </c>
       <c r="F4">
-        <v>1.013149818834726</v>
+        <v>1.011587797784852</v>
       </c>
       <c r="G4">
-        <v>0.969570918288189</v>
+        <v>0.9303225582671115</v>
       </c>
       <c r="H4">
-        <v>1.013149818834726</v>
+        <v>1.011587797784852</v>
       </c>
       <c r="I4">
-        <v>0.969570918288189</v>
+        <v>0.9303225582671115</v>
       </c>
       <c r="J4">
-        <v>1.004577820500534</v>
+        <v>1.020694065861065</v>
       </c>
       <c r="K4">
-        <v>1.013149818834726</v>
+        <v>1.011587797784852</v>
       </c>
       <c r="L4">
-        <v>1.004577820500534</v>
+        <v>1.020694065861065</v>
       </c>
       <c r="M4">
-        <v>0.9870743693943613</v>
+        <v>0.9755083120640885</v>
       </c>
       <c r="N4">
-        <v>0.9870743693943613</v>
+        <v>0.9755083120640885</v>
       </c>
       <c r="O4">
-        <v>0.9864177789290487</v>
+        <v>0.9701619906224769</v>
       </c>
       <c r="P4">
-        <v>0.995766185874483</v>
+        <v>0.987534807304343</v>
       </c>
       <c r="Q4">
-        <v>0.995766185874483</v>
+        <v>0.987534807304343</v>
       </c>
       <c r="R4">
-        <v>1.000112094114544</v>
+        <v>0.9935480549244702</v>
       </c>
       <c r="S4">
-        <v>1.000112094114544</v>
+        <v>0.9935480549244702</v>
       </c>
       <c r="T4">
-        <v>0.9983851160982823</v>
+        <v>0.9995352281347213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.021238421657058</v>
+        <v>1.01178644610788</v>
       </c>
       <c r="D5">
-        <v>0.952294083731989</v>
+        <v>0.9714603179355952</v>
       </c>
       <c r="E5">
-        <v>1.067039958645531</v>
+        <v>1.057892789059102</v>
       </c>
       <c r="F5">
-        <v>1.01379246704611</v>
+        <v>0.99327425950502</v>
       </c>
       <c r="G5">
-        <v>0.9179196378890481</v>
+        <v>0.9602955222710651</v>
       </c>
       <c r="H5">
-        <v>1.01379246704611</v>
+        <v>0.99327425950502</v>
       </c>
       <c r="I5">
-        <v>0.9179196378890481</v>
+        <v>0.9602955222710651</v>
       </c>
       <c r="J5">
-        <v>1.024302598530257</v>
+        <v>1.019404638862835</v>
       </c>
       <c r="K5">
-        <v>1.01379246704611</v>
+        <v>0.99327425950502</v>
       </c>
       <c r="L5">
-        <v>1.024302598530257</v>
+        <v>1.019404638862835</v>
       </c>
       <c r="M5">
-        <v>0.9711111182096526</v>
+        <v>0.9898500805669501</v>
       </c>
       <c r="N5">
-        <v>0.9711111182096526</v>
+        <v>0.9898500805669501</v>
       </c>
       <c r="O5">
-        <v>0.9648387733837648</v>
+        <v>0.9837201596898318</v>
       </c>
       <c r="P5">
-        <v>0.9853382344884718</v>
+        <v>0.9909914735463068</v>
       </c>
       <c r="Q5">
-        <v>0.9853382344884718</v>
+        <v>0.9909914735463067</v>
       </c>
       <c r="R5">
-        <v>0.9924517926278813</v>
+        <v>0.991562170035985</v>
       </c>
       <c r="S5">
-        <v>0.9924517926278813</v>
+        <v>0.991562170035985</v>
       </c>
       <c r="T5">
-        <v>0.9994311945833324</v>
+        <v>1.002352328956916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.070451858556717</v>
+        <v>1.007076947894807</v>
       </c>
       <c r="D6">
-        <v>0.8402911079178972</v>
+        <v>0.9851045979984232</v>
       </c>
       <c r="E6">
-        <v>1.237832947060686</v>
+        <v>1.010830593073015</v>
       </c>
       <c r="F6">
-        <v>1.03470396809494</v>
+        <v>1.013149818834726</v>
       </c>
       <c r="G6">
-        <v>0.7319928959455085</v>
+        <v>0.969570918288189</v>
       </c>
       <c r="H6">
-        <v>1.03470396809494</v>
+        <v>1.013149818834726</v>
       </c>
       <c r="I6">
-        <v>0.7319928959455085</v>
+        <v>0.969570918288189</v>
       </c>
       <c r="J6">
-        <v>1.085162910880466</v>
+        <v>1.004577820500534</v>
       </c>
       <c r="K6">
-        <v>1.03470396809494</v>
+        <v>1.013149818834726</v>
       </c>
       <c r="L6">
-        <v>1.085162910880466</v>
+        <v>1.004577820500534</v>
       </c>
       <c r="M6">
-        <v>0.9085779034129871</v>
+        <v>0.9870743693943613</v>
       </c>
       <c r="N6">
-        <v>0.9085779034129871</v>
+        <v>0.9870743693943613</v>
       </c>
       <c r="O6">
-        <v>0.8858156382479571</v>
+        <v>0.9864177789290487</v>
       </c>
       <c r="P6">
-        <v>0.9506199249736379</v>
+        <v>0.995766185874483</v>
       </c>
       <c r="Q6">
-        <v>0.9506199249736379</v>
+        <v>0.995766185874483</v>
       </c>
       <c r="R6">
-        <v>0.9716409357539634</v>
+        <v>1.000112094114544</v>
       </c>
       <c r="S6">
-        <v>0.9716409357539634</v>
+        <v>1.000112094114544</v>
       </c>
       <c r="T6">
-        <v>1.000072614742702</v>
+        <v>0.9983851160982823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.002339278742156</v>
+        <v>1.021238421657058</v>
       </c>
       <c r="D7">
-        <v>0.994949249225094</v>
+        <v>0.952294083731989</v>
       </c>
       <c r="E7">
-        <v>1.005120440640803</v>
+        <v>1.067039958645531</v>
       </c>
       <c r="F7">
-        <v>1.003175825993329</v>
+        <v>1.01379246704611</v>
       </c>
       <c r="G7">
-        <v>0.9903457161984702</v>
+        <v>0.9179196378890481</v>
       </c>
       <c r="H7">
-        <v>1.003175825993329</v>
+        <v>1.01379246704611</v>
       </c>
       <c r="I7">
-        <v>0.9903457161984702</v>
+        <v>0.9179196378890481</v>
       </c>
       <c r="J7">
-        <v>1.001995018273805</v>
+        <v>1.024302598530257</v>
       </c>
       <c r="K7">
-        <v>1.003175825993329</v>
+        <v>1.01379246704611</v>
       </c>
       <c r="L7">
-        <v>1.001995018273805</v>
+        <v>1.024302598530257</v>
       </c>
       <c r="M7">
-        <v>0.9961703672361377</v>
+        <v>0.9711111182096526</v>
       </c>
       <c r="N7">
-        <v>0.9961703672361377</v>
+        <v>0.9711111182096526</v>
       </c>
       <c r="O7">
-        <v>0.9957633278991231</v>
+        <v>0.9648387733837648</v>
       </c>
       <c r="P7">
-        <v>0.9985055201552017</v>
+        <v>0.9853382344884718</v>
       </c>
       <c r="Q7">
-        <v>0.9985055201552017</v>
+        <v>0.9853382344884718</v>
       </c>
       <c r="R7">
-        <v>0.9996730966147336</v>
+        <v>0.9924517926278813</v>
       </c>
       <c r="S7">
-        <v>0.9996730966147336</v>
+        <v>0.9924517926278813</v>
       </c>
       <c r="T7">
-        <v>0.9996542548456095</v>
+        <v>0.9994311945833324</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000163379709217</v>
+        <v>1.070451858556717</v>
       </c>
       <c r="D8">
-        <v>0.9996099119582463</v>
+        <v>0.8402911079178972</v>
       </c>
       <c r="E8">
-        <v>1.000808048506368</v>
+        <v>1.237832947060686</v>
       </c>
       <c r="F8">
-        <v>0.9998800995005648</v>
+        <v>1.03470396809494</v>
       </c>
       <c r="G8">
-        <v>0.9994440820038869</v>
+        <v>0.7319928959455085</v>
       </c>
       <c r="H8">
-        <v>0.9998800995005648</v>
+        <v>1.03470396809494</v>
       </c>
       <c r="I8">
-        <v>0.9994440820038869</v>
+        <v>0.7319928959455085</v>
       </c>
       <c r="J8">
-        <v>1.000279954001243</v>
+        <v>1.085162910880466</v>
       </c>
       <c r="K8">
-        <v>0.9998800995005648</v>
+        <v>1.03470396809494</v>
       </c>
       <c r="L8">
-        <v>1.000279954001243</v>
+        <v>1.085162910880466</v>
       </c>
       <c r="M8">
-        <v>0.9998620180025648</v>
+        <v>0.9085779034129871</v>
       </c>
       <c r="N8">
-        <v>0.9998620180025648</v>
+        <v>0.9085779034129871</v>
       </c>
       <c r="O8">
-        <v>0.9997779826544586</v>
+        <v>0.8858156382479571</v>
       </c>
       <c r="P8">
-        <v>0.9998680451685648</v>
+        <v>0.9506199249736379</v>
       </c>
       <c r="Q8">
-        <v>0.9998680451685648</v>
+        <v>0.9506199249736379</v>
       </c>
       <c r="R8">
-        <v>0.9998710587515648</v>
+        <v>0.9716409357539634</v>
       </c>
       <c r="S8">
-        <v>0.9998710587515648</v>
+        <v>0.9716409357539634</v>
       </c>
       <c r="T8">
-        <v>1.000030912613254</v>
+        <v>1.000072614742702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004129387183456</v>
+        <v>1.002339278742156</v>
       </c>
       <c r="D9">
-        <v>0.9910898029337273</v>
+        <v>0.994949249225094</v>
       </c>
       <c r="E9">
-        <v>1.008969197236928</v>
+        <v>1.005120440640803</v>
       </c>
       <c r="F9">
-        <v>1.005659576010293</v>
+        <v>1.003175825993329</v>
       </c>
       <c r="G9">
-        <v>0.982939791358942</v>
+        <v>0.9903457161984702</v>
       </c>
       <c r="H9">
-        <v>1.005659576010293</v>
+        <v>1.003175825993329</v>
       </c>
       <c r="I9">
-        <v>0.982939791358942</v>
+        <v>0.9903457161984702</v>
       </c>
       <c r="J9">
-        <v>1.003499677102932</v>
+        <v>1.001995018273805</v>
       </c>
       <c r="K9">
-        <v>1.005659576010293</v>
+        <v>1.003175825993329</v>
       </c>
       <c r="L9">
-        <v>1.003499677102932</v>
+        <v>1.001995018273805</v>
       </c>
       <c r="M9">
-        <v>0.9932197342309368</v>
+        <v>0.9961703672361377</v>
       </c>
       <c r="N9">
-        <v>0.9932197342309368</v>
+        <v>0.9961703672361377</v>
       </c>
       <c r="O9">
-        <v>0.992509757131867</v>
+        <v>0.9957633278991231</v>
       </c>
       <c r="P9">
-        <v>0.9973663481573887</v>
+        <v>0.9985055201552017</v>
       </c>
       <c r="Q9">
-        <v>0.9973663481573888</v>
+        <v>0.9985055201552017</v>
       </c>
       <c r="R9">
-        <v>0.9994396551206148</v>
+        <v>0.9996730966147336</v>
       </c>
       <c r="S9">
-        <v>0.9994396551206148</v>
+        <v>0.9996730966147336</v>
       </c>
       <c r="T9">
-        <v>0.9993812386377131</v>
+        <v>0.9996542548456095</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.071453874423856</v>
+        <v>1.000163379709217</v>
       </c>
       <c r="D10">
-        <v>0.8379314328250742</v>
+        <v>0.9996099119582463</v>
       </c>
       <c r="E10">
-        <v>1.242076623030659</v>
+        <v>1.000808048506368</v>
       </c>
       <c r="F10">
-        <v>1.034607484222022</v>
+        <v>0.9998800995005648</v>
       </c>
       <c r="G10">
-        <v>0.7284270828488359</v>
+        <v>0.9994440820038869</v>
       </c>
       <c r="H10">
-        <v>1.034607484222022</v>
+        <v>0.9998800995005648</v>
       </c>
       <c r="I10">
-        <v>0.7284270828488359</v>
+        <v>0.9994440820038869</v>
       </c>
       <c r="J10">
-        <v>1.086616985637612</v>
+        <v>1.000279954001243</v>
       </c>
       <c r="K10">
-        <v>1.034607484222022</v>
+        <v>0.9998800995005648</v>
       </c>
       <c r="L10">
-        <v>1.086616985637612</v>
+        <v>1.000279954001243</v>
       </c>
       <c r="M10">
-        <v>0.9075220342432241</v>
+        <v>0.9998620180025648</v>
       </c>
       <c r="N10">
-        <v>0.9075220342432241</v>
+        <v>0.9998620180025648</v>
       </c>
       <c r="O10">
-        <v>0.8843251671038409</v>
+        <v>0.9997779826544586</v>
       </c>
       <c r="P10">
-        <v>0.9498838509028236</v>
+        <v>0.9998680451685648</v>
       </c>
       <c r="Q10">
-        <v>0.9498838509028236</v>
+        <v>0.9998680451685648</v>
       </c>
       <c r="R10">
-        <v>0.9710647592326233</v>
+        <v>0.9998710587515648</v>
       </c>
       <c r="S10">
-        <v>0.9710647592326233</v>
+        <v>0.9998710587515648</v>
       </c>
       <c r="T10">
-        <v>1.00018558049801</v>
+        <v>1.000030912613254</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.012473523287781</v>
+        <v>1.004129387183456</v>
       </c>
       <c r="D11">
-        <v>0.9730231375931715</v>
+        <v>0.9910898029337273</v>
       </c>
       <c r="E11">
-        <v>1.027191900741039</v>
+        <v>1.008969197236928</v>
       </c>
       <c r="F11">
-        <v>1.017223119171311</v>
+        <v>1.005659576010293</v>
       </c>
       <c r="G11">
-        <v>0.948555977787454</v>
+        <v>0.982939791358942</v>
       </c>
       <c r="H11">
-        <v>1.017223119171311</v>
+        <v>1.005659576010293</v>
       </c>
       <c r="I11">
-        <v>0.948555977787454</v>
+        <v>0.982939791358942</v>
       </c>
       <c r="J11">
-        <v>1.010518952077633</v>
+        <v>1.003499677102932</v>
       </c>
       <c r="K11">
-        <v>1.017223119171311</v>
+        <v>1.005659576010293</v>
       </c>
       <c r="L11">
-        <v>1.010518952077633</v>
+        <v>1.003499677102932</v>
       </c>
       <c r="M11">
-        <v>0.9795374649325437</v>
+        <v>0.9932197342309368</v>
       </c>
       <c r="N11">
-        <v>0.9795374649325437</v>
+        <v>0.9932197342309368</v>
       </c>
       <c r="O11">
-        <v>0.9773660224860863</v>
+        <v>0.992509757131867</v>
       </c>
       <c r="P11">
-        <v>0.9920993496787996</v>
+        <v>0.9973663481573887</v>
       </c>
       <c r="Q11">
-        <v>0.9920993496787996</v>
+        <v>0.9973663481573888</v>
       </c>
       <c r="R11">
-        <v>0.9983802920519276</v>
+        <v>0.9994396551206148</v>
       </c>
       <c r="S11">
-        <v>0.9983802920519276</v>
+        <v>0.9994396551206148</v>
       </c>
       <c r="T11">
-        <v>0.9981644351097317</v>
+        <v>0.9993812386377131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.021625614842104</v>
+        <v>1.071453874423856</v>
       </c>
       <c r="D12">
-        <v>0.9509187843578933</v>
+        <v>0.8379314328250742</v>
       </c>
       <c r="E12">
-        <v>1.073588446842105</v>
+        <v>1.242076623030659</v>
       </c>
       <c r="F12">
-        <v>1.010243945968422</v>
+        <v>1.034607484222022</v>
       </c>
       <c r="G12">
-        <v>0.9178979247894722</v>
+        <v>0.7284270828488359</v>
       </c>
       <c r="H12">
-        <v>1.010243945968422</v>
+        <v>1.034607484222022</v>
       </c>
       <c r="I12">
-        <v>0.9178979247894722</v>
+        <v>0.7284270828488359</v>
       </c>
       <c r="J12">
-        <v>1.026309429252629</v>
+        <v>1.086616985637612</v>
       </c>
       <c r="K12">
-        <v>1.010243945968422</v>
+        <v>1.034607484222022</v>
       </c>
       <c r="L12">
-        <v>1.026309429252629</v>
+        <v>1.086616985637612</v>
       </c>
       <c r="M12">
-        <v>0.9721036770210505</v>
+        <v>0.9075220342432241</v>
       </c>
       <c r="N12">
-        <v>0.9721036770210505</v>
+        <v>0.9075220342432241</v>
       </c>
       <c r="O12">
-        <v>0.9650420461333314</v>
+        <v>0.8843251671038409</v>
       </c>
       <c r="P12">
-        <v>0.9848171000035076</v>
+        <v>0.9498838509028236</v>
       </c>
       <c r="Q12">
-        <v>0.9848171000035076</v>
+        <v>0.9498838509028236</v>
       </c>
       <c r="R12">
-        <v>0.9911738114947362</v>
+        <v>0.9710647592326233</v>
       </c>
       <c r="S12">
-        <v>0.9911738114947362</v>
+        <v>0.9710647592326233</v>
       </c>
       <c r="T12">
-        <v>1.000097357675438</v>
+        <v>1.00018558049801</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9855078523546629</v>
+        <v>1.012473523287781</v>
       </c>
       <c r="D13">
-        <v>1.032066248264003</v>
+        <v>0.9730231375931715</v>
       </c>
       <c r="E13">
-        <v>0.9592000193436624</v>
+        <v>1.027191900741039</v>
       </c>
       <c r="F13">
-        <v>0.9871235410207316</v>
+        <v>1.017223119171311</v>
       </c>
       <c r="G13">
-        <v>1.057396787687628</v>
+        <v>0.948555977787454</v>
       </c>
       <c r="H13">
-        <v>0.9871235410207316</v>
+        <v>1.017223119171311</v>
       </c>
       <c r="I13">
-        <v>1.057396787687628</v>
+        <v>0.948555977787454</v>
       </c>
       <c r="J13">
-        <v>0.9848429613229041</v>
+        <v>1.010518952077633</v>
       </c>
       <c r="K13">
-        <v>0.9871235410207316</v>
+        <v>1.017223119171311</v>
       </c>
       <c r="L13">
-        <v>0.9848429613229041</v>
+        <v>1.010518952077633</v>
       </c>
       <c r="M13">
-        <v>1.021119874505266</v>
+        <v>0.9795374649325437</v>
       </c>
       <c r="N13">
-        <v>1.021119874505266</v>
+        <v>0.9795374649325437</v>
       </c>
       <c r="O13">
-        <v>1.024768665758178</v>
+        <v>0.9773660224860863</v>
       </c>
       <c r="P13">
-        <v>1.009787763343754</v>
+        <v>0.9920993496787996</v>
       </c>
       <c r="Q13">
-        <v>1.009787763343754</v>
+        <v>0.9920993496787996</v>
       </c>
       <c r="R13">
-        <v>1.004121707762999</v>
+        <v>0.9983802920519276</v>
       </c>
       <c r="S13">
-        <v>1.004121707762999</v>
+        <v>0.9983802920519276</v>
       </c>
       <c r="T13">
-        <v>1.001022901665599</v>
+        <v>0.9981644351097317</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.123343199999999</v>
+        <v>1.021625614842104</v>
       </c>
       <c r="D14">
-        <v>0.7200443600000007</v>
+        <v>0.9509187843578933</v>
       </c>
       <c r="E14">
-        <v>1.419963300000002</v>
+        <v>1.073588446842105</v>
       </c>
       <c r="F14">
-        <v>1.0582291</v>
+        <v>1.010243945968422</v>
       </c>
       <c r="G14">
-        <v>0.531786490000001</v>
+        <v>0.9178979247894722</v>
       </c>
       <c r="H14">
-        <v>1.0582291</v>
+        <v>1.010243945968422</v>
       </c>
       <c r="I14">
-        <v>0.531786490000001</v>
+        <v>0.9178979247894722</v>
       </c>
       <c r="J14">
-        <v>1.1501391</v>
+        <v>1.026309429252629</v>
       </c>
       <c r="K14">
-        <v>1.0582291</v>
+        <v>1.010243945968422</v>
       </c>
       <c r="L14">
-        <v>1.1501391</v>
+        <v>1.026309429252629</v>
       </c>
       <c r="M14">
-        <v>0.8409627950000005</v>
+        <v>0.9721036770210505</v>
       </c>
       <c r="N14">
-        <v>0.8409627950000005</v>
+        <v>0.9721036770210505</v>
       </c>
       <c r="O14">
-        <v>0.8006566500000005</v>
+        <v>0.9650420461333314</v>
       </c>
       <c r="P14">
-        <v>0.9133848966666669</v>
+        <v>0.9848171000035076</v>
       </c>
       <c r="Q14">
-        <v>0.9133848966666669</v>
+        <v>0.9848171000035076</v>
       </c>
       <c r="R14">
-        <v>0.9495959475000002</v>
+        <v>0.9911738114947362</v>
       </c>
       <c r="S14">
-        <v>0.9495959475000002</v>
+        <v>0.9911738114947362</v>
       </c>
       <c r="T14">
-        <v>1.000584258333334</v>
+        <v>1.000097357675438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9980878900000001</v>
+        <v>0.9855078523546629</v>
       </c>
       <c r="D15">
-        <v>1.0042646</v>
+        <v>1.032066248264003</v>
       </c>
       <c r="E15">
-        <v>1.0045745</v>
+        <v>0.9592000193436624</v>
       </c>
       <c r="F15">
-        <v>0.9875187400000001</v>
+        <v>0.9871235410207316</v>
       </c>
       <c r="G15">
-        <v>1.0091796</v>
+        <v>1.057396787687628</v>
       </c>
       <c r="H15">
-        <v>0.9875187400000001</v>
+        <v>0.9871235410207316</v>
       </c>
       <c r="I15">
-        <v>1.0091796</v>
+        <v>1.057396787687628</v>
       </c>
       <c r="J15">
-        <v>1.0024373</v>
+        <v>0.9848429613229041</v>
       </c>
       <c r="K15">
-        <v>0.9875187400000001</v>
+        <v>0.9871235410207316</v>
       </c>
       <c r="L15">
-        <v>1.0024373</v>
+        <v>0.9848429613229041</v>
       </c>
       <c r="M15">
-        <v>1.00580845</v>
+        <v>1.021119874505266</v>
       </c>
       <c r="N15">
-        <v>1.00580845</v>
+        <v>1.021119874505266</v>
       </c>
       <c r="O15">
-        <v>1.005293833333333</v>
+        <v>1.024768665758178</v>
       </c>
       <c r="P15">
-        <v>0.99971188</v>
+        <v>1.009787763343754</v>
       </c>
       <c r="Q15">
-        <v>0.99971188</v>
+        <v>1.009787763343754</v>
       </c>
       <c r="R15">
-        <v>0.996663595</v>
+        <v>1.004121707762999</v>
       </c>
       <c r="S15">
-        <v>0.996663595</v>
+        <v>1.004121707762999</v>
       </c>
       <c r="T15">
-        <v>1.001010438333333</v>
+        <v>1.001022901665599</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.0550102</v>
+        <v>1.123343199999999</v>
       </c>
       <c r="D16">
-        <v>0.88627042</v>
+        <v>0.7200443600000007</v>
       </c>
       <c r="E16">
-        <v>1.055856</v>
+        <v>1.419963300000002</v>
       </c>
       <c r="F16">
-        <v>1.1248129</v>
+        <v>1.0582291</v>
       </c>
       <c r="G16">
-        <v>0.7563714999999999</v>
+        <v>0.531786490000001</v>
       </c>
       <c r="H16">
-        <v>1.1248129</v>
+        <v>1.0582291</v>
       </c>
       <c r="I16">
-        <v>0.7563714999999999</v>
+        <v>0.531786490000001</v>
       </c>
       <c r="J16">
-        <v>1.0262848</v>
+        <v>1.1501391</v>
       </c>
       <c r="K16">
-        <v>1.1248129</v>
+        <v>1.0582291</v>
       </c>
       <c r="L16">
-        <v>1.0262848</v>
+        <v>1.1501391</v>
       </c>
       <c r="M16">
-        <v>0.8913281499999999</v>
+        <v>0.8409627950000005</v>
       </c>
       <c r="N16">
-        <v>0.8913281499999999</v>
+        <v>0.8409627950000005</v>
       </c>
       <c r="O16">
-        <v>0.88964224</v>
+        <v>0.8006566500000005</v>
       </c>
       <c r="P16">
-        <v>0.9691563999999998</v>
+        <v>0.9133848966666669</v>
       </c>
       <c r="Q16">
-        <v>0.9691564</v>
+        <v>0.9133848966666669</v>
       </c>
       <c r="R16">
-        <v>1.008070525</v>
+        <v>0.9495959475000002</v>
       </c>
       <c r="S16">
-        <v>1.008070525</v>
+        <v>0.9495959475000002</v>
       </c>
       <c r="T16">
-        <v>0.9841009700000001</v>
+        <v>1.000584258333334</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9348425</v>
+        <v>0.9980878900000001</v>
       </c>
       <c r="D17">
-        <v>1.1436098</v>
+        <v>1.0042646</v>
       </c>
       <c r="E17">
-        <v>0.83191888</v>
+        <v>1.0045745</v>
       </c>
       <c r="F17">
-        <v>0.92778346</v>
+        <v>0.9875187400000001</v>
       </c>
       <c r="G17">
-        <v>1.2612583</v>
+        <v>1.0091796</v>
       </c>
       <c r="H17">
-        <v>0.92778346</v>
+        <v>0.9875187400000001</v>
       </c>
       <c r="I17">
-        <v>1.2612583</v>
+        <v>1.0091796</v>
       </c>
       <c r="J17">
-        <v>0.9377474500000001</v>
+        <v>1.0024373</v>
       </c>
       <c r="K17">
-        <v>0.92778346</v>
+        <v>0.9875187400000001</v>
       </c>
       <c r="L17">
-        <v>0.9377474500000001</v>
+        <v>1.0024373</v>
       </c>
       <c r="M17">
-        <v>1.099502875</v>
+        <v>1.00580845</v>
       </c>
       <c r="N17">
-        <v>1.099502875</v>
+        <v>1.00580845</v>
       </c>
       <c r="O17">
-        <v>1.114205183333333</v>
+        <v>1.005293833333333</v>
       </c>
       <c r="P17">
-        <v>1.04226307</v>
+        <v>0.99971188</v>
       </c>
       <c r="Q17">
-        <v>1.04226307</v>
+        <v>0.99971188</v>
       </c>
       <c r="R17">
-        <v>1.0136431675</v>
+        <v>0.996663595</v>
       </c>
       <c r="S17">
-        <v>1.0136431675</v>
+        <v>0.996663595</v>
       </c>
       <c r="T17">
-        <v>1.006193398333333</v>
+        <v>1.001010438333333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.048851425616438</v>
+        <v>1.0550102</v>
       </c>
       <c r="D18">
-        <v>0.8949005994520548</v>
+        <v>0.88627042</v>
       </c>
       <c r="E18">
-        <v>1.102819604109589</v>
+        <v>1.055856</v>
       </c>
       <c r="F18">
-        <v>1.069307399726027</v>
+        <v>1.1248129</v>
       </c>
       <c r="G18">
-        <v>0.7972666515068493</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="H18">
-        <v>1.069307399726027</v>
+        <v>1.1248129</v>
       </c>
       <c r="I18">
-        <v>0.7972666515068493</v>
+        <v>0.7563714999999999</v>
       </c>
       <c r="J18">
-        <v>1.040433319178082</v>
+        <v>1.0262848</v>
       </c>
       <c r="K18">
-        <v>1.069307399726027</v>
+        <v>1.1248129</v>
       </c>
       <c r="L18">
-        <v>1.040433319178082</v>
+        <v>1.0262848</v>
       </c>
       <c r="M18">
-        <v>0.9188499853424656</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="N18">
-        <v>0.9188499853424656</v>
+        <v>0.8913281499999999</v>
       </c>
       <c r="O18">
-        <v>0.9108668567123287</v>
+        <v>0.88964224</v>
       </c>
       <c r="P18">
-        <v>0.9690024568036527</v>
+        <v>0.9691563999999998</v>
       </c>
       <c r="Q18">
-        <v>0.9690024568036527</v>
+        <v>0.9691564</v>
       </c>
       <c r="R18">
-        <v>0.9940786925342462</v>
+        <v>1.008070525</v>
       </c>
       <c r="S18">
-        <v>0.9940786925342462</v>
+        <v>1.008070525</v>
       </c>
       <c r="T18">
-        <v>0.9922631665981734</v>
+        <v>0.9841009700000001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.004377992631579</v>
+        <v>0.9348425</v>
       </c>
       <c r="D19">
-        <v>0.9909270273684211</v>
+        <v>1.1436098</v>
       </c>
       <c r="E19">
-        <v>1.007763908947368</v>
+        <v>0.83191888</v>
       </c>
       <c r="F19">
-        <v>1.006464006315789</v>
+        <v>0.92778346</v>
       </c>
       <c r="G19">
-        <v>0.9811851247368422</v>
+        <v>1.2612583</v>
       </c>
       <c r="H19">
-        <v>1.006464006315789</v>
+        <v>0.92778346</v>
       </c>
       <c r="I19">
-        <v>0.9811851247368422</v>
+        <v>1.2612583</v>
       </c>
       <c r="J19">
-        <v>1.003519541052632</v>
+        <v>0.9377474500000001</v>
       </c>
       <c r="K19">
-        <v>1.006464006315789</v>
+        <v>0.92778346</v>
       </c>
       <c r="L19">
-        <v>1.003519541052632</v>
+        <v>0.9377474500000001</v>
       </c>
       <c r="M19">
-        <v>0.9923523328947369</v>
+        <v>1.099502875</v>
       </c>
       <c r="N19">
-        <v>0.9923523328947369</v>
+        <v>1.099502875</v>
       </c>
       <c r="O19">
-        <v>0.9918772310526317</v>
+        <v>1.114205183333333</v>
       </c>
       <c r="P19">
-        <v>0.9970562240350876</v>
+        <v>1.04226307</v>
       </c>
       <c r="Q19">
-        <v>0.9970562240350876</v>
+        <v>1.04226307</v>
       </c>
       <c r="R19">
-        <v>0.9994081696052631</v>
+        <v>1.0136431675</v>
       </c>
       <c r="S19">
-        <v>0.9994081696052631</v>
+        <v>1.0136431675</v>
       </c>
       <c r="T19">
-        <v>0.9990396001754386</v>
+        <v>1.006193398333333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.019575398947368</v>
+        <v>1.048851425616438</v>
       </c>
       <c r="D20">
-        <v>0.9539703252631577</v>
+        <v>0.8949005994520548</v>
       </c>
       <c r="E20">
-        <v>1.082744658947368</v>
+        <v>1.102819604109589</v>
       </c>
       <c r="F20">
-        <v>0.9980270442105262</v>
+        <v>1.069307399726027</v>
       </c>
       <c r="G20">
-        <v>0.9302307978947369</v>
+        <v>0.7972666515068493</v>
       </c>
       <c r="H20">
-        <v>0.9980270442105262</v>
+        <v>1.069307399726027</v>
       </c>
       <c r="I20">
-        <v>0.9302307978947369</v>
+        <v>0.7972666515068493</v>
       </c>
       <c r="J20">
-        <v>1.028443041052632</v>
+        <v>1.040433319178082</v>
       </c>
       <c r="K20">
-        <v>0.9980270442105262</v>
+        <v>1.069307399726027</v>
       </c>
       <c r="L20">
-        <v>1.028443041052632</v>
+        <v>1.040433319178082</v>
       </c>
       <c r="M20">
-        <v>0.9793369194736843</v>
+        <v>0.9188499853424656</v>
       </c>
       <c r="N20">
-        <v>0.9793369194736843</v>
+        <v>0.9188499853424656</v>
       </c>
       <c r="O20">
-        <v>0.9708813880701754</v>
+        <v>0.9108668567123287</v>
       </c>
       <c r="P20">
-        <v>0.9855669610526316</v>
+        <v>0.9690024568036527</v>
       </c>
       <c r="Q20">
-        <v>0.9855669610526316</v>
+        <v>0.9690024568036527</v>
       </c>
       <c r="R20">
-        <v>0.9886819818421053</v>
+        <v>0.9940786925342462</v>
       </c>
       <c r="S20">
-        <v>0.9886819818421053</v>
+        <v>0.9940786925342462</v>
       </c>
       <c r="T20">
-        <v>1.002165211052632</v>
+        <v>0.9922631665981734</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9571627823628177</v>
+        <v>1.004377992631579</v>
       </c>
       <c r="D21">
-        <v>1.095466582991626</v>
+        <v>0.9909270273684211</v>
       </c>
       <c r="E21">
-        <v>0.8739474678005341</v>
+        <v>1.007763908947368</v>
       </c>
       <c r="F21">
-        <v>0.9652095947156103</v>
+        <v>1.006464006315789</v>
       </c>
       <c r="G21">
-        <v>1.167955588361192</v>
+        <v>0.9811851247368422</v>
       </c>
       <c r="H21">
-        <v>0.9652095947156103</v>
+        <v>1.006464006315789</v>
       </c>
       <c r="I21">
-        <v>1.167955588361192</v>
+        <v>0.9811851247368422</v>
       </c>
       <c r="J21">
-        <v>0.9538513414715889</v>
+        <v>1.003519541052632</v>
       </c>
       <c r="K21">
-        <v>0.9652095947156103</v>
+        <v>1.006464006315789</v>
       </c>
       <c r="L21">
-        <v>0.9538513414715889</v>
+        <v>1.003519541052632</v>
       </c>
       <c r="M21">
-        <v>1.06090346491639</v>
+        <v>0.9923523328947369</v>
       </c>
       <c r="N21">
-        <v>1.06090346491639</v>
+        <v>0.9923523328947369</v>
       </c>
       <c r="O21">
-        <v>1.072424504274802</v>
+        <v>0.9918772310526317</v>
       </c>
       <c r="P21">
-        <v>1.029005508182797</v>
+        <v>0.9970562240350876</v>
       </c>
       <c r="Q21">
-        <v>1.029005508182797</v>
+        <v>0.9970562240350876</v>
       </c>
       <c r="R21">
-        <v>1.013056529816001</v>
+        <v>0.9994081696052631</v>
       </c>
       <c r="S21">
-        <v>1.013056529816001</v>
+        <v>0.9994081696052631</v>
       </c>
       <c r="T21">
-        <v>1.002265559617228</v>
+        <v>0.9990396001754386</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9881902067147117</v>
+        <v>1.019575398947368</v>
       </c>
       <c r="D22">
-        <v>1.025298299667422</v>
+        <v>0.9539703252631577</v>
       </c>
       <c r="E22">
-        <v>0.9739367055147482</v>
+        <v>1.082744658947368</v>
       </c>
       <c r="F22">
-        <v>0.9849473103608972</v>
+        <v>0.9980270442105262</v>
       </c>
       <c r="G22">
-        <v>1.048939658473913</v>
+        <v>0.9302307978947369</v>
       </c>
       <c r="H22">
-        <v>0.9849473103608972</v>
+        <v>0.9980270442105262</v>
       </c>
       <c r="I22">
-        <v>1.048939658473913</v>
+        <v>0.9302307978947369</v>
       </c>
       <c r="J22">
-        <v>0.9895247385780078</v>
+        <v>1.028443041052632</v>
       </c>
       <c r="K22">
-        <v>0.9849473103608972</v>
+        <v>0.9980270442105262</v>
       </c>
       <c r="L22">
-        <v>0.9895247385780078</v>
+        <v>1.028443041052632</v>
       </c>
       <c r="M22">
-        <v>1.01923219852596</v>
+        <v>0.9793369194736843</v>
       </c>
       <c r="N22">
-        <v>1.01923219852596</v>
+        <v>0.9793369194736843</v>
       </c>
       <c r="O22">
-        <v>1.021254232239781</v>
+        <v>0.9708813880701754</v>
       </c>
       <c r="P22">
-        <v>1.007803902470939</v>
+        <v>0.9855669610526316</v>
       </c>
       <c r="Q22">
-        <v>1.007803902470939</v>
+        <v>0.9855669610526316</v>
       </c>
       <c r="R22">
-        <v>1.002089754443429</v>
+        <v>0.9886819818421053</v>
       </c>
       <c r="S22">
-        <v>1.002089754443429</v>
+        <v>0.9886819818421053</v>
       </c>
       <c r="T22">
-        <v>1.001806153218283</v>
+        <v>1.002165211052632</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9865357185113219</v>
+        <v>0.9571627823628177</v>
       </c>
       <c r="D23">
-        <v>1.031861426470666</v>
+        <v>1.095466582991626</v>
       </c>
       <c r="E23">
-        <v>0.9385568681491758</v>
+        <v>0.8739474678005341</v>
       </c>
       <c r="F23">
-        <v>1.005447565159535</v>
+        <v>0.9652095947156103</v>
       </c>
       <c r="G23">
-        <v>1.047002770488813</v>
+        <v>1.167955588361192</v>
       </c>
       <c r="H23">
-        <v>1.005447565159535</v>
+        <v>0.9652095947156103</v>
       </c>
       <c r="I23">
-        <v>1.047002770488813</v>
+        <v>1.167955588361192</v>
       </c>
       <c r="J23">
-        <v>0.9787530665002225</v>
+        <v>0.9538513414715889</v>
       </c>
       <c r="K23">
-        <v>1.005447565159535</v>
+        <v>0.9652095947156103</v>
       </c>
       <c r="L23">
-        <v>0.9787530665002225</v>
+        <v>0.9538513414715889</v>
       </c>
       <c r="M23">
-        <v>1.012877918494518</v>
+        <v>1.06090346491639</v>
       </c>
       <c r="N23">
-        <v>1.012877918494518</v>
+        <v>1.06090346491639</v>
       </c>
       <c r="O23">
-        <v>1.019205754486567</v>
+        <v>1.072424504274802</v>
       </c>
       <c r="P23">
-        <v>1.010401134049524</v>
+        <v>1.029005508182797</v>
       </c>
       <c r="Q23">
-        <v>1.010401134049524</v>
+        <v>1.029005508182797</v>
       </c>
       <c r="R23">
-        <v>1.009162741827026</v>
+        <v>1.013056529816001</v>
       </c>
       <c r="S23">
-        <v>1.009162741827026</v>
+        <v>1.013056529816001</v>
       </c>
       <c r="T23">
-        <v>0.9980262358799559</v>
+        <v>1.002265559617228</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9956332946746439</v>
+        <v>0.9881902067147117</v>
       </c>
       <c r="D24">
-        <v>1.00870860637718</v>
+        <v>1.025298299667422</v>
       </c>
       <c r="E24">
-        <v>0.9991227717885854</v>
+        <v>0.9739367055147482</v>
       </c>
       <c r="F24">
-        <v>0.9874859973358197</v>
+        <v>0.9849473103608972</v>
       </c>
       <c r="G24">
-        <v>1.02030236908294</v>
+        <v>1.048939658473913</v>
       </c>
       <c r="H24">
-        <v>0.9874859973358197</v>
+        <v>0.9849473103608972</v>
       </c>
       <c r="I24">
-        <v>1.02030236908294</v>
+        <v>1.048939658473913</v>
       </c>
       <c r="J24">
-        <v>0.998986093031317</v>
+        <v>0.9895247385780078</v>
       </c>
       <c r="K24">
-        <v>0.9874859973358197</v>
+        <v>0.9849473103608972</v>
       </c>
       <c r="L24">
-        <v>0.998986093031317</v>
+        <v>0.9895247385780078</v>
       </c>
       <c r="M24">
-        <v>1.009644231057128</v>
+        <v>1.01923219852596</v>
       </c>
       <c r="N24">
-        <v>1.009644231057128</v>
+        <v>1.01923219852596</v>
       </c>
       <c r="O24">
-        <v>1.009332356163812</v>
+        <v>1.021254232239781</v>
       </c>
       <c r="P24">
-        <v>1.002258153150025</v>
+        <v>1.007803902470939</v>
       </c>
       <c r="Q24">
-        <v>1.002258153150025</v>
+        <v>1.007803902470939</v>
       </c>
       <c r="R24">
-        <v>0.998565114196474</v>
+        <v>1.002089754443429</v>
       </c>
       <c r="S24">
-        <v>0.998565114196474</v>
+        <v>1.002089754443429</v>
       </c>
       <c r="T24">
-        <v>1.001706522048414</v>
+        <v>1.001806153218283</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.006954929020247</v>
+        <v>0.9865357185113219</v>
       </c>
       <c r="D25">
-        <v>0.9865583441904687</v>
+        <v>1.031861426470666</v>
       </c>
       <c r="E25">
-        <v>0.9980757240538051</v>
+        <v>0.9385568681491758</v>
       </c>
       <c r="F25">
-        <v>1.021874830372084</v>
+        <v>1.005447565159535</v>
       </c>
       <c r="G25">
-        <v>0.9666112051414429</v>
+        <v>1.047002770488813</v>
       </c>
       <c r="H25">
-        <v>1.021874830372084</v>
+        <v>1.005447565159535</v>
       </c>
       <c r="I25">
-        <v>0.9666112051414429</v>
+        <v>1.047002770488813</v>
       </c>
       <c r="J25">
-        <v>1.00081505871106</v>
+        <v>0.9787530665002225</v>
       </c>
       <c r="K25">
-        <v>1.021874830372084</v>
+        <v>1.005447565159535</v>
       </c>
       <c r="L25">
-        <v>1.00081505871106</v>
+        <v>0.9787530665002225</v>
       </c>
       <c r="M25">
-        <v>0.9837131319262513</v>
+        <v>1.012877918494518</v>
       </c>
       <c r="N25">
-        <v>0.9837131319262513</v>
+        <v>1.012877918494518</v>
       </c>
       <c r="O25">
-        <v>0.9846615360143237</v>
+        <v>1.019205754486567</v>
       </c>
       <c r="P25">
-        <v>0.9964336980748624</v>
+        <v>1.010401134049524</v>
       </c>
       <c r="Q25">
-        <v>0.9964336980748622</v>
+        <v>1.010401134049524</v>
       </c>
       <c r="R25">
-        <v>1.002793981149168</v>
+        <v>1.009162741827026</v>
       </c>
       <c r="S25">
-        <v>1.002793981149168</v>
+        <v>1.009162741827026</v>
       </c>
       <c r="T25">
-        <v>0.9968150152481846</v>
+        <v>0.9980262358799559</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.001267321479691</v>
+        <v>0.9956332946746439</v>
       </c>
       <c r="D26">
-        <v>0.9964013226850438</v>
+        <v>1.00870860637718</v>
       </c>
       <c r="E26">
-        <v>1.012117754001024</v>
+        <v>0.9991227717885854</v>
       </c>
       <c r="F26">
-        <v>0.9949622459466204</v>
+        <v>0.9874859973358197</v>
       </c>
       <c r="G26">
-        <v>0.9973278678896023</v>
+        <v>1.02030236908294</v>
       </c>
       <c r="H26">
-        <v>0.9949622459466204</v>
+        <v>0.9874859973358197</v>
       </c>
       <c r="I26">
-        <v>0.9973278678896023</v>
+        <v>1.02030236908294</v>
       </c>
       <c r="J26">
-        <v>1.003862003837466</v>
+        <v>0.998986093031317</v>
       </c>
       <c r="K26">
-        <v>0.9949622459466204</v>
+        <v>0.9874859973358197</v>
       </c>
       <c r="L26">
-        <v>1.003862003837466</v>
+        <v>0.998986093031317</v>
       </c>
       <c r="M26">
-        <v>1.000594935863534</v>
+        <v>1.009644231057128</v>
       </c>
       <c r="N26">
-        <v>1.000594935863534</v>
+        <v>1.009644231057128</v>
       </c>
       <c r="O26">
-        <v>0.9991970648040374</v>
+        <v>1.009332356163812</v>
       </c>
       <c r="P26">
-        <v>0.9987173725578963</v>
+        <v>1.002258153150025</v>
       </c>
       <c r="Q26">
-        <v>0.9987173725578963</v>
+        <v>1.002258153150025</v>
       </c>
       <c r="R26">
-        <v>0.9977785909050774</v>
+        <v>0.998565114196474</v>
       </c>
       <c r="S26">
-        <v>0.9977785909050774</v>
+        <v>0.998565114196474</v>
       </c>
       <c r="T26">
-        <v>1.000989752639908</v>
+        <v>1.001706522048414</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.007786720856166</v>
+        <v>1.006954929020247</v>
       </c>
       <c r="D27">
-        <v>0.9831496559565884</v>
+        <v>0.9865583441904687</v>
       </c>
       <c r="E27">
-        <v>1.018543978566573</v>
+        <v>0.9980757240538051</v>
       </c>
       <c r="F27">
-        <v>1.009109217522926</v>
+        <v>1.021874830372084</v>
       </c>
       <c r="G27">
-        <v>0.9681563671136875</v>
+        <v>0.9666112051414429</v>
       </c>
       <c r="H27">
-        <v>1.009109217522926</v>
+        <v>1.021874830372084</v>
       </c>
       <c r="I27">
-        <v>0.9681563671136875</v>
+        <v>0.9666112051414429</v>
       </c>
       <c r="J27">
-        <v>1.007242496547776</v>
+        <v>1.00081505871106</v>
       </c>
       <c r="K27">
-        <v>1.009109217522926</v>
+        <v>1.021874830372084</v>
       </c>
       <c r="L27">
-        <v>1.007242496547776</v>
+        <v>1.00081505871106</v>
       </c>
       <c r="M27">
-        <v>0.9876994318307315</v>
+        <v>0.9837131319262513</v>
       </c>
       <c r="N27">
-        <v>0.9876994318307315</v>
+        <v>0.9837131319262513</v>
       </c>
       <c r="O27">
-        <v>0.9861828398726837</v>
+        <v>0.9846615360143237</v>
       </c>
       <c r="P27">
-        <v>0.994836027061463</v>
+        <v>0.9964336980748624</v>
       </c>
       <c r="Q27">
-        <v>0.994836027061463</v>
+        <v>0.9964336980748622</v>
       </c>
       <c r="R27">
-        <v>0.9984043246768286</v>
+        <v>1.002793981149168</v>
       </c>
       <c r="S27">
-        <v>0.9984043246768286</v>
+        <v>1.002793981149168</v>
       </c>
       <c r="T27">
-        <v>0.9989980727606195</v>
+        <v>0.9968150152481846</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9983695786395739</v>
+        <v>1.001267321479691</v>
       </c>
       <c r="D28">
-        <v>1.00433358266725</v>
+        <v>0.9964013226850438</v>
       </c>
       <c r="E28">
-        <v>0.9860147324819</v>
+        <v>1.012117754001024</v>
       </c>
       <c r="F28">
-        <v>1.005877074472088</v>
+        <v>0.9949622459466204</v>
       </c>
       <c r="G28">
-        <v>1.004050974261764</v>
+        <v>0.9973278678896023</v>
       </c>
       <c r="H28">
-        <v>1.005877074472088</v>
+        <v>0.9949622459466204</v>
       </c>
       <c r="I28">
-        <v>1.004050974261764</v>
+        <v>0.9973278678896023</v>
       </c>
       <c r="J28">
-        <v>0.9952800729516558</v>
+        <v>1.003862003837466</v>
       </c>
       <c r="K28">
-        <v>1.005877074472088</v>
+        <v>0.9949622459466204</v>
       </c>
       <c r="L28">
-        <v>0.9952800729516558</v>
+        <v>1.003862003837466</v>
       </c>
       <c r="M28">
-        <v>0.9996655236067101</v>
+        <v>1.000594935863534</v>
       </c>
       <c r="N28">
-        <v>0.9996655236067101</v>
+        <v>1.000594935863534</v>
       </c>
       <c r="O28">
-        <v>1.001221543293557</v>
+        <v>0.9991970648040374</v>
       </c>
       <c r="P28">
-        <v>1.001736040561836</v>
+        <v>0.9987173725578963</v>
       </c>
       <c r="Q28">
-        <v>1.001736040561836</v>
+        <v>0.9987173725578963</v>
       </c>
       <c r="R28">
-        <v>1.002771299039399</v>
+        <v>0.9977785909050774</v>
       </c>
       <c r="S28">
-        <v>1.002771299039399</v>
+        <v>0.9977785909050774</v>
       </c>
       <c r="T28">
-        <v>0.9989876692457053</v>
+        <v>1.000989752639908</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.007786720856166</v>
+      </c>
+      <c r="D29">
+        <v>0.9831496559565884</v>
+      </c>
+      <c r="E29">
+        <v>1.018543978566573</v>
+      </c>
+      <c r="F29">
+        <v>1.009109217522926</v>
+      </c>
+      <c r="G29">
+        <v>0.9681563671136875</v>
+      </c>
+      <c r="H29">
+        <v>1.009109217522926</v>
+      </c>
+      <c r="I29">
+        <v>0.9681563671136875</v>
+      </c>
+      <c r="J29">
+        <v>1.007242496547776</v>
+      </c>
+      <c r="K29">
+        <v>1.009109217522926</v>
+      </c>
+      <c r="L29">
+        <v>1.007242496547776</v>
+      </c>
+      <c r="M29">
+        <v>0.9876994318307315</v>
+      </c>
+      <c r="N29">
+        <v>0.9876994318307315</v>
+      </c>
+      <c r="O29">
+        <v>0.9861828398726837</v>
+      </c>
+      <c r="P29">
+        <v>0.994836027061463</v>
+      </c>
+      <c r="Q29">
+        <v>0.994836027061463</v>
+      </c>
+      <c r="R29">
+        <v>0.9984043246768286</v>
+      </c>
+      <c r="S29">
+        <v>0.9984043246768286</v>
+      </c>
+      <c r="T29">
+        <v>0.9989980727606195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9983695786395739</v>
+      </c>
+      <c r="D30">
+        <v>1.00433358266725</v>
+      </c>
+      <c r="E30">
+        <v>0.9860147324819</v>
+      </c>
+      <c r="F30">
+        <v>1.005877074472088</v>
+      </c>
+      <c r="G30">
+        <v>1.004050974261764</v>
+      </c>
+      <c r="H30">
+        <v>1.005877074472088</v>
+      </c>
+      <c r="I30">
+        <v>1.004050974261764</v>
+      </c>
+      <c r="J30">
+        <v>0.9952800729516558</v>
+      </c>
+      <c r="K30">
+        <v>1.005877074472088</v>
+      </c>
+      <c r="L30">
+        <v>0.9952800729516558</v>
+      </c>
+      <c r="M30">
+        <v>0.9996655236067101</v>
+      </c>
+      <c r="N30">
+        <v>0.9996655236067101</v>
+      </c>
+      <c r="O30">
+        <v>1.001221543293557</v>
+      </c>
+      <c r="P30">
+        <v>1.001736040561836</v>
+      </c>
+      <c r="Q30">
+        <v>1.001736040561836</v>
+      </c>
+      <c r="R30">
+        <v>1.002771299039399</v>
+      </c>
+      <c r="S30">
+        <v>1.002771299039399</v>
+      </c>
+      <c r="T30">
+        <v>0.9989876692457053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9753401703046108</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.056107497161466</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9175239219340459</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>0.9862551773862154</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.093694796674831</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9862551773862154</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.093694796674831</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9708483937544705</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9862551773862154</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9708483937544705</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.032271595214651</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.032271595214651</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.040216895863589</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.016932789271839</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.016932789271839</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.009263386300433</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.009263386300433</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9999616595359399</v>
       </c>
     </row>
